--- a/Tecoma_stans/Data/Hoja_datos_proyecto.xlsx
+++ b/Tecoma_stans/Data/Hoja_datos_proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\OneDrive\UCR\Biolo\Fisio vegetal\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\OneDrive\UCR\Biolo\Fisio vegetal\Proyecto\Tecoma_stans-Fe_toxicity\Tecoma_stans\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F760B-CD46-479A-8FD9-4B5FAB219A73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A30C0-7F8D-4724-8ACB-AC5251E6A9D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Dosis" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$Q$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$Q$111</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -42,6 +42,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -58,6 +59,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="44">
   <si>
     <t>Numero_planta</t>
   </si>
@@ -220,11 +222,18 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,50 +389,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -655,7 +666,7 @@
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
@@ -664,16 +675,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -738,7 +749,7 @@
       <c r="H2" s="2">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="28">
         <f>SUM(F2,G2,H2)</f>
         <v>0.28210000000000002</v>
       </c>
@@ -795,46 +806,46 @@
         <v>0.24179999999999999</v>
       </c>
       <c r="G3" s="4">
-        <v>0.45900000000000002</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="H3" s="4">
         <v>0.112</v>
       </c>
-      <c r="I3" s="26">
-        <f t="shared" ref="I3:I66" si="0">SUM(F3,G3,H3)</f>
-        <v>0.81279999999999997</v>
+      <c r="I3" s="28">
+        <f>SUM(F3,G3,H3)</f>
+        <v>0.3997</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">E3/F3</f>
+        <f>E3/F3</f>
         <v>252.97766749379656</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">F3/I3</f>
-        <v>0.29749015748031493</v>
+        <f>F3/I3</f>
+        <v>0.6049537152864648</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="3">G3/I3</f>
-        <v>0.56471456692913391</v>
+        <f>G3/I3</f>
+        <v>0.1148361270953215</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="4">H3/I3</f>
-        <v>0.13779527559055119</v>
+        <f>H3/I3</f>
+        <v>0.28021015761821366</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="5">(G3/1000)/(E3/10000)</f>
-        <v>7.503678273663561E-2</v>
+        <f>(G3/1000)/(E3/10000)</f>
+        <v>7.5036782736635612E-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="6">(F3+H3)/G3</f>
-        <v>0.77080610021786489</v>
+        <f>(F3+H3)/G3</f>
+        <v>7.7080610021786491</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="7">LN(I3*1000)/((E3/10000)*42)</f>
-        <v>26.080653747262581</v>
+        <f>LN(I3*1000)/((E3/10000)*42)</f>
+        <v>23.317975142332759</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="8">LN(I3*1000)/(42)</f>
-        <v>0.15953535897200519</v>
+        <f>LN(I3*1000)/(42)</f>
+        <v>0.14263605394564949</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -862,40 +873,40 @@
       <c r="H4" s="4">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="I4" s="26">
-        <f t="shared" si="0"/>
+      <c r="I4" s="28">
+        <f>SUM(F4,G4,H4)</f>
         <v>0.25259999999999999</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>E4/F4</f>
         <v>273.30287206266314</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f>F4/I4</f>
         <v>0.60649247822644503</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f>G4/I4</f>
         <v>0.15122723673792557</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f>H4/I4</f>
         <v>0.24228028503562946</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
+        <f>(G4/1000)/(E4/10000)</f>
         <v>9.1234774301409121E-3</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
+        <f>(F4+H4)/G4</f>
         <v>5.6125654450261786</v>
       </c>
       <c r="P4">
-        <f t="shared" si="7"/>
+        <f>LN(I4*1000)/((E4/10000)*42)</f>
         <v>31.45681764370666</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="8"/>
+        <f>LN(I4*1000)/(42)</f>
         <v>0.13170969547419978</v>
       </c>
     </row>
@@ -924,40 +935,40 @@
       <c r="H5" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="I5" s="26">
-        <f t="shared" si="0"/>
+      <c r="I5" s="28">
+        <f>SUM(F5,G5,H5)</f>
         <v>0.24930000000000002</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>E5/F5</f>
         <v>148.90148830616585</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f>F5/I5</f>
         <v>0.56598475732049736</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f>G5/I5</f>
         <v>0.20377055756117127</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f>H5/I5</f>
         <v>0.23024468511833129</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
+        <f>(G5/1000)/(E5/10000)</f>
         <v>2.4178962398857685E-2</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
+        <f>(F5+H5)/G5</f>
         <v>3.9074803149606301</v>
       </c>
       <c r="P5">
-        <f t="shared" si="7"/>
+        <f>LN(I5*1000)/((E5/10000)*42)</f>
         <v>62.540026184011161</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="8"/>
+        <f>LN(I5*1000)/(42)</f>
         <v>0.13139659501260745</v>
       </c>
     </row>
@@ -986,40 +997,40 @@
       <c r="H6" s="4">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="I6" s="26">
-        <f t="shared" si="0"/>
+      <c r="I6" s="28">
+        <f>SUM(F6,G6,H6)</f>
         <v>0.37319999999999998</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>E6/F6</f>
         <v>240.92980856882406</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f>F6/I6</f>
         <v>0.58788853161843524</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f>G6/I6</f>
         <v>0.19319399785637728</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f>H6/I6</f>
         <v>0.21891747052518756</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
+        <f>(G6/1000)/(E6/10000)</f>
         <v>1.3639803253878167E-2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f>(F6+H6)/G6</f>
         <v>4.1761442441054095</v>
       </c>
       <c r="P6">
-        <f t="shared" si="7"/>
+        <f>LN(I6*1000)/((E6/10000)*42)</f>
         <v>26.674749423333825</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="8"/>
+        <f>LN(I6*1000)/(42)</f>
         <v>0.14100272545174258</v>
       </c>
     </row>
@@ -1048,40 +1059,40 @@
       <c r="H7" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="I7" s="26">
-        <f t="shared" si="0"/>
+      <c r="I7" s="28">
+        <f>SUM(F7,G7,H7)</f>
         <v>0.27929999999999999</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>E7/F7</f>
         <v>192.00247985120893</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f>F7/I7</f>
         <v>0.57751521661296101</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f>G7/I7</f>
         <v>0.14536340852130325</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f>H7/I7</f>
         <v>0.27712137486573574</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
+        <f>(G7/1000)/(E7/10000)</f>
         <v>1.3109460768485631E-2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f>(F7+H7)/G7</f>
         <v>5.8793103448275863</v>
       </c>
       <c r="P7">
-        <f t="shared" si="7"/>
+        <f>LN(I7*1000)/((E7/10000)*42)</f>
         <v>43.300632508811383</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="8"/>
+        <f>LN(I7*1000)/(42)</f>
         <v>0.13410205887978885</v>
       </c>
     </row>
@@ -1110,40 +1121,40 @@
       <c r="H8" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="I8" s="26">
-        <f t="shared" si="0"/>
+      <c r="I8" s="28">
+        <f>SUM(F8,G8,H8)</f>
         <v>0.21810000000000002</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>E8/F8</f>
         <v>239.0151515151515</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f>F8/I8</f>
         <v>0.60522696011004129</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f>G8/I8</f>
         <v>0.10132966529115085</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f>H8/I8</f>
         <v>0.29344337459880787</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f>(G8/1000)/(E8/10000)</f>
         <v>7.0047543581616481E-3</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f>(F8+H8)/G8</f>
         <v>8.8687782805429869</v>
       </c>
       <c r="P8">
-        <f t="shared" si="7"/>
+        <f>LN(I8*1000)/((E8/10000)*42)</f>
         <v>40.638092771923496</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="8"/>
+        <f>LN(I8*1000)/(42)</f>
         <v>0.12821318269541865</v>
       </c>
     </row>
@@ -1172,40 +1183,40 @@
       <c r="H9" s="2">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="I9" s="26">
-        <f t="shared" si="0"/>
+      <c r="I9" s="28">
+        <f>SUM(F9,G9,H9)</f>
         <v>0.2427</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>E9/F9</f>
         <v>170.71220930232556</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f>F9/I9</f>
         <v>0.5669550885867326</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f>G9/I9</f>
         <v>0.15451174289245981</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f>H9/I9</f>
         <v>0.27853316852080756</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f>(G9/1000)/(E9/10000)</f>
         <v>1.5964240102171137E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f>(F9+H9)/G9</f>
         <v>5.4720000000000004</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f>LN(I9*1000)/((E9/10000)*42)</f>
         <v>55.66528930986393</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="8"/>
+        <f>LN(I9*1000)/(42)</f>
         <v>0.13075776458887037</v>
       </c>
     </row>
@@ -1234,232 +1245,232 @@
       <c r="H10" s="4">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="I10" s="26">
-        <f t="shared" si="0"/>
+      <c r="I10" s="28">
+        <f>SUM(F10,G10,H10)</f>
         <v>0.23010000000000003</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>E10/F10</f>
         <v>269.84246061515375</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f>F10/I10</f>
         <v>0.57931334202520635</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f>G10/I10</f>
         <v>0.18035636679704475</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f>H10/I10</f>
         <v>0.24033029117774879</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f>(G10/1000)/(E10/10000)</f>
         <v>1.1537392271337226E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f>(F10+H10)/G10</f>
         <v>4.5445783132530115</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f>LN(I10*1000)/((E10/10000)*42)</f>
         <v>35.999007089514549</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="8"/>
+        <f>LN(I10*1000)/(42)</f>
         <v>0.1294884285009838</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="E11" s="2">
-        <v>64.56</v>
+        <v>28.6</v>
       </c>
       <c r="F11" s="4">
-        <v>0.34820000000000001</v>
+        <v>0.1188</v>
       </c>
       <c r="G11" s="4">
-        <v>5.8599999999999999E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="I11" s="26">
-        <f t="shared" si="0"/>
-        <v>0.54979999999999996</v>
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="I11" s="28">
+        <f>SUM(F11,G11,H11)</f>
+        <v>0.23210000000000003</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>185.41068351522114</v>
+        <f>E11/F11</f>
+        <v>240.74074074074073</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0.63332120771189526</v>
+        <f>F11/I11</f>
+        <v>0.51184834123222744</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0.1065842124408876</v>
+        <f>G11/I11</f>
+        <v>0.14562688496337783</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
-        <v>0.26009457984721718</v>
+        <f>H11/I11</f>
+        <v>0.34252477380439461</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
-        <v>9.0768277571251551E-3</v>
+        <f>(G11/1000)/(E11/10000)</f>
+        <v>1.1818181818181816E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
-        <v>8.3822525597269628</v>
+        <f>(F11+H11)/G11</f>
+        <v>5.8668639053254443</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
-        <v>23.269437716598603</v>
+        <f>LN(I11*1000)/((E11/10000)*42)</f>
+        <v>45.347721555780815</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="8"/>
-        <v>0.1502274898983606</v>
+        <f>LN(I11*1000)/(42)</f>
+        <v>0.12969448364953312</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>9.5</v>
+        <v>10.4</v>
       </c>
       <c r="E12" s="2">
-        <v>28.6</v>
+        <v>26.81</v>
       </c>
       <c r="F12" s="4">
-        <v>0.1188</v>
+        <v>0.1014</v>
       </c>
       <c r="G12" s="4">
-        <v>3.3799999999999997E-2</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="H12" s="4">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="I12" s="26">
-        <f t="shared" si="0"/>
-        <v>0.23210000000000003</v>
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="I12" s="28">
+        <f>SUM(F12,G12,H12)</f>
+        <v>0.2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>240.74074074074073</v>
+        <f>E12/F12</f>
+        <v>264.39842209072975</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>0.51184834123222744</v>
+        <f>F12/I12</f>
+        <v>0.50700000000000001</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0.14562688496337783</v>
+        <f>G12/I12</f>
+        <v>0.19199999999999998</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
-        <v>0.34252477380439461</v>
+        <f>H12/I12</f>
+        <v>0.30099999999999999</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
-        <v>1.1818181818181816E-2</v>
+        <f>(G12/1000)/(E12/10000)</f>
+        <v>1.4323013800820589E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
-        <v>5.8668639053254443</v>
+        <f>(F12+H12)/G12</f>
+        <v>4.2083333333333339</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
-        <v>45.347721555780815</v>
+        <f>LN(I12*1000)/((E12/10000)*42)</f>
+        <v>47.053492536083162</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>0.12969448364953312</v>
+        <f>LN(I12*1000)/(42)</f>
+        <v>0.12615041348923897</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10.4</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>26.81</v>
+        <v>44.15</v>
       </c>
       <c r="F13" s="4">
-        <v>0.1014</v>
+        <v>0.2021</v>
       </c>
       <c r="G13" s="4">
-        <v>3.8399999999999997E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="I13" s="26">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>7.51E-2</v>
+      </c>
+      <c r="I13" s="28">
+        <f>SUM(F13,G13,H13)</f>
+        <v>0.31490000000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>264.39842209072975</v>
+        <f>E13/F13</f>
+        <v>218.45620979713013</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0.50700000000000001</v>
+        <f>F13/I13</f>
+        <v>0.64179104477611937</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
-        <v>0.19199999999999998</v>
+        <f>G13/I13</f>
+        <v>0.11972054620514448</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
-        <v>0.30099999999999999</v>
+        <f>H13/I13</f>
+        <v>0.23848840901873611</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
-        <v>1.4323013800820589E-2</v>
+        <f>(G13/1000)/(E13/10000)</f>
+        <v>8.5390713476783692E-3</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
-        <v>4.2083333333333339</v>
+        <f>(F13+H13)/G13</f>
+        <v>7.3527851458885944</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
-        <v>47.053492536083162</v>
+        <f>LN(I13*1000)/((E13/10000)*42)</f>
+        <v>31.021167708067626</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>0.12615041348923897</v>
+        <f>LN(I13*1000)/(42)</f>
+        <v>0.13695845543111856</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -1468,1586 +1479,1982 @@
         <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>44.15</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2021</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>3.7699999999999997E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="H14" s="4">
-        <v>7.51E-2</v>
-      </c>
-      <c r="I14" s="26">
-        <f t="shared" si="0"/>
-        <v>0.31490000000000001</v>
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="I14" s="28">
+        <f>SUM(F14,G14,H14)</f>
+        <v>0.14280000000000001</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>218.45620979713013</v>
+        <f>E14/F14</f>
+        <v>250.57306590257878</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0.64179104477611937</v>
+        <f>F14/I14</f>
+        <v>0.4887955182072829</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
-        <v>0.11972054620514448</v>
+        <f>G14/I14</f>
+        <v>0.10364145658263305</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
-        <v>0.23848840901873611</v>
+        <f>H14/I14</f>
+        <v>0.40756302521008403</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
-        <v>8.5390713476783692E-3</v>
+        <f>(G14/1000)/(E14/10000)</f>
+        <v>8.4619782732990294E-3</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
-        <v>7.3527851458885944</v>
+        <f>(F14+H14)/G14</f>
+        <v>8.6486486486486491</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
-        <v>31.021167708067626</v>
+        <f>LN(I14*1000)/((E14/10000)*42)</f>
+        <v>67.541248739490385</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="8"/>
-        <v>0.13695845543111856</v>
+        <f>LN(I14*1000)/(42)</f>
+        <v>0.11812964404536867</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12.3</v>
       </c>
       <c r="E15" s="2">
-        <v>17.489999999999998</v>
+        <v>20.65</v>
       </c>
       <c r="F15" s="4">
-        <v>6.9800000000000001E-2</v>
+        <v>0.20860000000000001</v>
       </c>
       <c r="G15" s="4">
-        <v>1.4800000000000001E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="H15" s="4">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="I15" s="26">
-        <f t="shared" si="0"/>
-        <v>0.14280000000000001</v>
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="I15" s="28">
+        <f>SUM(F15,G15,H15)</f>
+        <v>0.30259999999999998</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>250.57306590257878</v>
+        <f>E15/F15</f>
+        <v>98.99328859060401</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0.4887955182072829</v>
+        <f>F15/I15</f>
+        <v>0.68935888962326508</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>0.10364145658263305</v>
+        <f>G15/I15</f>
+        <v>0.10872438863185724</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>0.40756302521008403</v>
+        <f>H15/I15</f>
+        <v>0.20191672174487774</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
-        <v>8.4619782732990294E-3</v>
+        <f>(G15/1000)/(E15/10000)</f>
+        <v>1.5932203389830507E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
-        <v>8.6486486486486491</v>
+        <f>(F15+H15)/G15</f>
+        <v>8.1975683890577518</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
-        <v>67.541248739490385</v>
+        <f>LN(I15*1000)/((E15/10000)*42)</f>
+        <v>65.864312248982529</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>0.11812964404536867</v>
+        <f>LN(I15*1000)/(42)</f>
+        <v>0.13600980479414893</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>12.3</v>
+        <v>9.5</v>
       </c>
       <c r="E16" s="2">
-        <v>20.65</v>
+        <v>26.32</v>
       </c>
       <c r="F16" s="4">
-        <v>0.20860000000000001</v>
+        <v>0.1024</v>
       </c>
       <c r="G16" s="4">
-        <v>3.2899999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="I16" s="26">
-        <f t="shared" si="0"/>
-        <v>0.30259999999999998</v>
+        <v>5.79E-2</v>
+      </c>
+      <c r="I16" s="28">
+        <f>SUM(F16,G16,H16)</f>
+        <v>0.1822</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>98.99328859060401</v>
+        <f>E16/F16</f>
+        <v>257.03125</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0.68935888962326508</v>
+        <f>F16/I16</f>
+        <v>0.56201975850713504</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
-        <v>0.10872438863185724</v>
+        <f>G16/I16</f>
+        <v>0.12019758507135016</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
-        <v>0.20191672174487774</v>
+        <f>H16/I16</f>
+        <v>0.31778265642151482</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
-        <v>1.5932203389830507E-2</v>
+        <f>(G16/1000)/(E16/10000)</f>
+        <v>8.3206686930091187E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
-        <v>8.1975683890577518</v>
+        <f>(F16+H16)/G16</f>
+        <v>7.3196347031963471</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
-        <v>65.864312248982529</v>
+        <f>LN(I16*1000)/((E16/10000)*42)</f>
+        <v>47.086273201854986</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>0.13600980479414893</v>
+        <f>LN(I16*1000)/(42)</f>
+        <v>0.12393107106728232</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9.5</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
       </c>
       <c r="E17" s="2">
-        <v>26.32</v>
+        <v>36.56</v>
       </c>
       <c r="F17" s="4">
-        <v>0.1024</v>
+        <v>0.15310000000000001</v>
       </c>
       <c r="G17" s="4">
-        <v>2.1899999999999999E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="H17" s="4">
-        <v>5.79E-2</v>
-      </c>
-      <c r="I17" s="26">
-        <f t="shared" si="0"/>
-        <v>0.1822</v>
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="I17" s="28">
+        <f>SUM(F17,G17,H17)</f>
+        <v>0.25990000000000002</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>257.03125</v>
+        <f>E17/F17</f>
+        <v>238.7981711299804</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0.56201975850713504</v>
+        <f>F17/I17</f>
+        <v>0.58907272027702962</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
-        <v>0.12019758507135016</v>
+        <f>G17/I17</f>
+        <v>0.14659484417083493</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0.31778265642151482</v>
+        <f>H17/I17</f>
+        <v>0.26433243555213543</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
-        <v>8.3206686930091187E-3</v>
+        <f>(G17/1000)/(E17/10000)</f>
+        <v>1.0421225382932166E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
-        <v>7.3196347031963471</v>
+        <f>(F17+H17)/G17</f>
+        <v>5.8215223097112858</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
-        <v>47.086273201854986</v>
+        <f>LN(I17*1000)/((E17/10000)*42)</f>
+        <v>36.211165869851541</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>0.12393107106728232</v>
+        <f>LN(I17*1000)/(42)</f>
+        <v>0.13238802242017725</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13.4</v>
       </c>
       <c r="E18" s="2">
-        <v>36.56</v>
+        <v>61.79</v>
       </c>
       <c r="F18" s="4">
-        <v>0.15310000000000001</v>
+        <v>0.24310000000000001</v>
       </c>
       <c r="G18" s="4">
-        <v>3.8100000000000002E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="H18" s="4">
-        <v>6.8699999999999997E-2</v>
-      </c>
-      <c r="I18" s="26">
-        <f t="shared" si="0"/>
-        <v>0.25990000000000002</v>
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="I18" s="28">
+        <f>SUM(F18,G18,H18)</f>
+        <v>0.39410000000000001</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>238.7981711299804</v>
+        <f>E18/F18</f>
+        <v>254.17523652817769</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0.58907272027702962</v>
+        <f>F18/I18</f>
+        <v>0.6168485156051764</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>0.14659484417083493</v>
+        <f>G18/I18</f>
+        <v>0.16417153006851051</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
-        <v>0.26433243555213543</v>
+        <f>H18/I18</f>
+        <v>0.21897995432631312</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
-        <v>1.0421225382932166E-2</v>
+        <f>(G18/1000)/(E18/10000)</f>
+        <v>1.0470949991908075E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
-        <v>5.8215223097112858</v>
+        <f>(F18+H18)/G18</f>
+        <v>5.0911901081916549</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
-        <v>36.211165869851541</v>
+        <f>LN(I18*1000)/((E18/10000)*42)</f>
+        <v>23.029634492408846</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="8"/>
-        <v>0.13238802242017725</v>
+        <f>LN(I18*1000)/(42)</f>
+        <v>0.14230011152859423</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
-        <v>13.4</v>
+        <v>10.5</v>
       </c>
       <c r="E19" s="2">
-        <v>61.79</v>
+        <v>29.85</v>
       </c>
       <c r="F19" s="4">
-        <v>0.24310000000000001</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="G19" s="4">
-        <v>6.4699999999999994E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="H19" s="4">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="I19" s="26">
-        <f t="shared" si="0"/>
-        <v>0.39410000000000001</v>
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="I19" s="28">
+        <f>SUM(F19,G19,H19)</f>
+        <v>0.2641</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>254.17523652817769</v>
+        <f>E19/F19</f>
+        <v>205.15463917525776</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0.6168485156051764</v>
+        <f>F19/I19</f>
+        <v>0.55092767890950389</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
-        <v>0.16417153006851051</v>
+        <f>G19/I19</f>
+        <v>0.14956455887921241</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
-        <v>0.21897995432631312</v>
+        <f>H19/I19</f>
+        <v>0.29950776221128361</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
-        <v>1.0470949991908075E-2</v>
+        <f>(G19/1000)/(E19/10000)</f>
+        <v>1.3232830820770517E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
-        <v>5.0911901081916549</v>
+        <f>(F19+H19)/G19</f>
+        <v>5.6860759493670887</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
-        <v>23.029634492408846</v>
+        <f>LN(I19*1000)/((E19/10000)*42)</f>
+        <v>44.478964818561749</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="8"/>
-        <v>0.14230011152859423</v>
+        <f>LN(I19*1000)/(42)</f>
+        <v>0.13276970998340681</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="E20" s="2">
-        <v>29.85</v>
+        <v>44.4</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14549999999999999</v>
+        <v>0.1691</v>
       </c>
       <c r="G20" s="4">
-        <v>3.95E-2</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="H20" s="4">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="I20" s="26">
-        <f t="shared" si="0"/>
-        <v>0.2641</v>
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="I20" s="28">
+        <f>SUM(F20,G20,H20)</f>
+        <v>0.2863</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>205.15463917525776</v>
+        <f>E20/F20</f>
+        <v>262.56652868125371</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.55092767890950389</v>
+        <f>F20/I20</f>
+        <v>0.59063918966119455</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
-        <v>0.14956455887921241</v>
+        <f>G20/I20</f>
+        <v>0.17149842822214459</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>0.29950776221128361</v>
+        <f>H20/I20</f>
+        <v>0.23786238211666083</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
-        <v>1.3232830820770517E-2</v>
+        <f>(G20/1000)/(E20/10000)</f>
+        <v>1.105855855855856E-2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
-        <v>5.6860759493670887</v>
+        <f>(F20+H20)/G20</f>
+        <v>4.8309572301425661</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
-        <v>44.478964818561749</v>
+        <f>LN(I20*1000)/((E20/10000)*42)</f>
+        <v>30.33590847331655</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="8"/>
-        <v>0.13276970998340681</v>
+        <f>LN(I20*1000)/(42)</f>
+        <v>0.13469143362152547</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
-        <v>9.5</v>
+        <v>13.4</v>
       </c>
       <c r="E21" s="2">
-        <v>44.4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.1691</v>
-      </c>
-      <c r="G21" s="4">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="I21" s="26">
-        <f t="shared" si="0"/>
-        <v>0.2863</v>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.1701</v>
+      </c>
+      <c r="G21" s="18">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="H21" s="18">
+        <v>9.69E-2</v>
+      </c>
+      <c r="I21" s="28">
+        <f>SUM(F21,G21,H21)</f>
+        <v>0.30030000000000001</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>262.56652868125371</v>
+        <f>E21/F21</f>
+        <v>235.03821281599056</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.59063918966119455</v>
+        <f>F21/I21</f>
+        <v>0.56643356643356646</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
-        <v>0.17149842822214459</v>
+        <f>G21/I21</f>
+        <v>0.1108891108891109</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
-        <v>0.23786238211666083</v>
+        <f>H21/I21</f>
+        <v>0.32267732267732269</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
-        <v>1.105855855855856E-2</v>
+        <f>(G21/1000)/(E21/10000)</f>
+        <v>8.3291645822911459E-3</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
-        <v>4.8309572301425661</v>
+        <f>(F21+H21)/G21</f>
+        <v>8.0180180180180169</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
-        <v>30.33590847331655</v>
+        <f>LN(I21*1000)/((E21/10000)*42)</f>
+        <v>33.974022576700762</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="8"/>
-        <v>0.13469143362152547</v>
+        <f>LN(I21*1000)/(42)</f>
+        <v>0.13582814226164963</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
-        <v>13.4</v>
+        <v>10.5</v>
       </c>
       <c r="E22" s="2">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="I22" s="26"/>
+        <v>38.770000000000003</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G22" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H22" s="18">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I22" s="28">
+        <f>SUM(F22,G22,H22)</f>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J22">
+        <f>E22/F22</f>
+        <v>219.03954802259889</v>
+      </c>
+      <c r="K22">
+        <f>F22/I22</f>
+        <v>0.65313653136531358</v>
+      </c>
+      <c r="L22">
+        <f>G22/I22</f>
+        <v>0.11808118081180811</v>
+      </c>
+      <c r="M22">
+        <f>H22/I22</f>
+        <v>0.22878228782287821</v>
+      </c>
+      <c r="N22">
+        <f>(G22/1000)/(E22/10000)</f>
+        <v>8.2538044880061893E-3</v>
+      </c>
+      <c r="O22">
+        <f>(F22+H22)/G22</f>
+        <v>7.4687499999999991</v>
+      </c>
+      <c r="P22">
+        <f>LN(I22*1000)/((E22/10000)*42)</f>
+        <v>34.403864186101799</v>
+      </c>
+      <c r="Q22">
+        <f>LN(I22*1000)/(42)</f>
+        <v>0.13338378144951668</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="E23" s="2">
-        <v>38.770000000000003</v>
-      </c>
-      <c r="I23" s="26"/>
+        <v>30.85</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G23" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H23" s="18">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="I23" s="28">
+        <f>SUM(F23,G23,H23)</f>
+        <v>0.2611</v>
+      </c>
+      <c r="J23">
+        <f>E23/F23</f>
+        <v>209.86394557823132</v>
+      </c>
+      <c r="K23">
+        <f>F23/I23</f>
+        <v>0.56300268096514738</v>
+      </c>
+      <c r="L23">
+        <f>G23/I23</f>
+        <v>0.14553810800459593</v>
+      </c>
+      <c r="M23">
+        <f>H23/I23</f>
+        <v>0.29145921103025663</v>
+      </c>
+      <c r="N23">
+        <f>(G23/1000)/(E23/10000)</f>
+        <v>1.2317666126418153E-2</v>
+      </c>
+      <c r="O23">
+        <f>(F23+H23)/G23</f>
+        <v>5.8710526315789471</v>
+      </c>
+      <c r="P23">
+        <f>LN(I23*1000)/((E23/10000)*42)</f>
+        <v>42.949011929498219</v>
+      </c>
+      <c r="Q23">
+        <f>LN(I23*1000)/(42)</f>
+        <v>0.13249770180250198</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10.8</v>
+        <v>16</v>
+      </c>
+      <c r="D24" s="3">
+        <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>30.85</v>
-      </c>
-      <c r="I24" s="26"/>
+        <v>35.14</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.1663</v>
+      </c>
+      <c r="G24" s="18">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="H24" s="18">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="I24" s="28">
+        <f>SUM(F24,G24,H24)</f>
+        <v>0.2994</v>
+      </c>
+      <c r="J24">
+        <f>E24/F24</f>
+        <v>211.30487071557425</v>
+      </c>
+      <c r="K24">
+        <f>F24/I24</f>
+        <v>0.55544422177688713</v>
+      </c>
+      <c r="L24">
+        <f>G24/I24</f>
+        <v>0.15798263193052772</v>
+      </c>
+      <c r="M24">
+        <f>H24/I24</f>
+        <v>0.28657314629258518</v>
+      </c>
+      <c r="N24">
+        <f>(G24/1000)/(E24/10000)</f>
+        <v>1.3460443938531588E-2</v>
+      </c>
+      <c r="O24">
+        <f>(F24+H24)/G24</f>
+        <v>5.3298097251585617</v>
+      </c>
+      <c r="P24">
+        <f>LN(I24*1000)/((E24/10000)*42)</f>
+        <v>38.633089898809715</v>
+      </c>
+      <c r="Q24">
+        <f>LN(I24*1000)/(42)</f>
+        <v>0.13575667790441734</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7.5</v>
       </c>
       <c r="E25" s="2">
-        <v>35.14</v>
-      </c>
-      <c r="I25" s="26"/>
+        <v>20.71</v>
+      </c>
+      <c r="F25" s="18">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="G25" s="18">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H25" s="18">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="I25" s="28">
+        <f>SUM(F25,G25,H25)</f>
+        <v>0.15810000000000002</v>
+      </c>
+      <c r="J25">
+        <f>E25/F25</f>
+        <v>226.83461117196057</v>
+      </c>
+      <c r="K25">
+        <f>F25/I25</f>
+        <v>0.57748260594560397</v>
+      </c>
+      <c r="L25">
+        <f>G25/I25</f>
+        <v>0.19797596457938013</v>
+      </c>
+      <c r="M25">
+        <f>H25/I25</f>
+        <v>0.22454142947501576</v>
+      </c>
+      <c r="N25">
+        <f>(G25/1000)/(E25/10000)</f>
+        <v>1.5113471752776438E-2</v>
+      </c>
+      <c r="O25">
+        <f>(F25+H25)/G25</f>
+        <v>4.0511182108626196</v>
+      </c>
+      <c r="P25">
+        <f>LN(I25*1000)/((E25/10000)*42)</f>
+        <v>58.210063509869009</v>
+      </c>
+      <c r="Q25">
+        <f>LN(I25*1000)/(42)</f>
+        <v>0.12055304152893873</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
-        <v>7.5</v>
+        <v>12.3</v>
       </c>
       <c r="E26" s="2">
-        <v>20.71</v>
-      </c>
-      <c r="I26" s="26"/>
+        <v>38.26</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.1409</v>
+      </c>
+      <c r="G26" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H26" s="18">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="I26" s="28">
+        <f>SUM(F26,G26,H26)</f>
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="J26">
+        <f>E26/F26</f>
+        <v>271.54009936124908</v>
+      </c>
+      <c r="K26">
+        <f>F26/I26</f>
+        <v>0.51087744742567076</v>
+      </c>
+      <c r="L26">
+        <f>G26/I26</f>
+        <v>0.15953589557650472</v>
+      </c>
+      <c r="M26">
+        <f>H26/I26</f>
+        <v>0.32958665699782452</v>
+      </c>
+      <c r="N26">
+        <f>(G26/1000)/(E26/10000)</f>
+        <v>1.1500261369576581E-2</v>
+      </c>
+      <c r="O26">
+        <f>(F26+H26)/G26</f>
+        <v>5.2681818181818185</v>
+      </c>
+      <c r="P26">
+        <f>LN(I26*1000)/((E26/10000)*42)</f>
+        <v>34.971722085475328</v>
+      </c>
+      <c r="Q26">
+        <f>LN(I26*1000)/(42)</f>
+        <v>0.13380180869902861</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="E27" s="2">
-        <v>38.26</v>
-      </c>
-      <c r="I27" s="26"/>
+        <v>49.68</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.2137</v>
+      </c>
+      <c r="G27" s="18">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H27" s="18">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="I27" s="28">
+        <f>SUM(F27,G27,H27)</f>
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="J27">
+        <f>E27/F27</f>
+        <v>232.47543284978943</v>
+      </c>
+      <c r="K27">
+        <f>F27/I27</f>
+        <v>0.59278779472954235</v>
+      </c>
+      <c r="L27">
+        <f>G27/I27</f>
+        <v>0.13314840499306518</v>
+      </c>
+      <c r="M27">
+        <f>H27/I27</f>
+        <v>0.27406380027739252</v>
+      </c>
+      <c r="N27">
+        <f>(G27/1000)/(E27/10000)</f>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="O27">
+        <f>(F27+H27)/G27</f>
+        <v>6.510416666666667</v>
+      </c>
+      <c r="P27">
+        <f>LN(I27*1000)/((E27/10000)*42)</f>
+        <v>28.216260048716567</v>
+      </c>
+      <c r="Q27">
+        <f>LN(I27*1000)/(42)</f>
+        <v>0.14017837992202389</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="2">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2">
-        <v>14.5</v>
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15</v>
       </c>
       <c r="E28" s="2">
-        <v>49.68</v>
-      </c>
-      <c r="I28" s="26"/>
+        <v>57.91</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="G28" s="18">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H28" s="18">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="I28" s="28">
+        <f>SUM(F28,G28,H28)</f>
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="J28">
+        <f>E28/F28</f>
+        <v>263.70673952641164</v>
+      </c>
+      <c r="K28">
+        <f>F28/I28</f>
+        <v>0.6184173472261334</v>
+      </c>
+      <c r="L28">
+        <f>G28/I28</f>
+        <v>0.10673049845114052</v>
+      </c>
+      <c r="M28">
+        <f>H28/I28</f>
+        <v>0.27485215432272597</v>
+      </c>
+      <c r="N28">
+        <f>(G28/1000)/(E28/10000)</f>
+        <v>6.5446382317389069E-3</v>
+      </c>
+      <c r="O28">
+        <f>(F28+H28)/G28</f>
+        <v>8.3693931398416872</v>
+      </c>
+      <c r="P28">
+        <f>LN(I28*1000)/((E28/10000)*42)</f>
+        <v>24.144195179502855</v>
+      </c>
+      <c r="Q28">
+        <f>LN(I28*1000)/(42)</f>
+        <v>0.13981903428450101</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="2">
-        <v>22</v>
-      </c>
-      <c r="D29" s="3">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10.4</v>
       </c>
       <c r="E29" s="2">
-        <v>57.91</v>
-      </c>
-      <c r="I29" s="26"/>
+        <v>37.909999999999997</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="G29" s="18">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="H29" s="18">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="I29" s="28">
+        <f>SUM(F29,G29,H29)</f>
+        <v>0.33930000000000005</v>
+      </c>
+      <c r="J29">
+        <f>E29/F29</f>
+        <v>189.26610084872689</v>
+      </c>
+      <c r="K29">
+        <f>F29/I29</f>
+        <v>0.59033303860890063</v>
+      </c>
+      <c r="L29">
+        <f>G29/I29</f>
+        <v>0.19481284998526377</v>
+      </c>
+      <c r="M29">
+        <f>H29/I29</f>
+        <v>0.21485411140583555</v>
+      </c>
+      <c r="N29">
+        <f>(G29/1000)/(E29/10000)</f>
+        <v>1.7436032709047748E-2</v>
+      </c>
+      <c r="O29">
+        <f>(F29+H29)/G29</f>
+        <v>4.1331316187594549</v>
+      </c>
+      <c r="P29">
+        <f>LN(I29*1000)/((E29/10000)*42)</f>
+        <v>36.595977137519853</v>
+      </c>
+      <c r="Q29">
+        <f>LN(I29*1000)/(42)</f>
+        <v>0.13873534932833773</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="E30" s="2">
-        <v>37.909999999999997</v>
-      </c>
-      <c r="I30" s="26"/>
+        <v>37.090000000000003</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.1547</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="I30" s="28">
+        <f>SUM(F30,G30,H30)</f>
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="J30">
+        <f>E30/F30</f>
+        <v>239.75436328377506</v>
+      </c>
+      <c r="K30">
+        <f>F30/I30</f>
+        <v>0.59984490112446687</v>
+      </c>
+      <c r="L30">
+        <f>G30/I30</f>
+        <v>0.13183404420317954</v>
+      </c>
+      <c r="M30">
+        <f>H30/I30</f>
+        <v>0.26832105467235362</v>
+      </c>
+      <c r="N30">
+        <f>(G30/1000)/(E30/10000)</f>
+        <v>9.1668913453761113E-3</v>
+      </c>
+      <c r="O30">
+        <f>(F30+H30)/G30</f>
+        <v>6.5852941176470576</v>
+      </c>
+      <c r="P30">
+        <f>LN(I30*1000)/((E30/10000)*42)</f>
+        <v>35.64413404259458</v>
+      </c>
+      <c r="Q30">
+        <f>LN(I30*1000)/(42)</f>
+        <v>0.13220409316398332</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2">
-        <v>9.5</v>
+        <v>21</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9</v>
       </c>
       <c r="E31" s="2">
-        <v>37.090000000000003</v>
+        <v>41.33</v>
       </c>
       <c r="F31" s="4">
-        <v>0.1547</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="G31" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="H31" s="4">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="I31" s="26">
-        <f t="shared" si="0"/>
-        <v>0.25790000000000002</v>
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="I31" s="28">
+        <f>SUM(F31,G31,H31)</f>
+        <v>0.20659999999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
-        <v>239.75436328377506</v>
+        <f>E31/F31</f>
+        <v>299.0593342981187</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0.59984490112446687</v>
+        <f>F31/I31</f>
+        <v>0.66892545982575025</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
-        <v>0.13183404420317954</v>
+        <f>G31/I31</f>
+        <v>0.11374636979670863</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>0.26832105467235362</v>
+        <f>H31/I31</f>
+        <v>0.21732817037754118</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
-        <v>9.1668913453761113E-3</v>
+        <f>(G31/1000)/(E31/10000)</f>
+        <v>5.685942414710864E-3</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
-        <v>6.5852941176470576</v>
+        <f>(F31+H31)/G31</f>
+        <v>7.7914893617021272</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
-        <v>35.64413404259458</v>
+        <f>LN(I31*1000)/((E31/10000)*42)</f>
+        <v>30.709760906326192</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="8"/>
-        <v>0.13220409316398332</v>
+        <f>LN(I31*1000)/(42)</f>
+        <v>0.12692344182584614</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>41.33</v>
+        <v>44.07</v>
       </c>
       <c r="F32" s="4">
-        <v>0.13819999999999999</v>
+        <v>0.1409</v>
       </c>
       <c r="G32" s="4">
-        <v>2.35E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="H32" s="4">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="I32" s="26">
-        <f t="shared" si="0"/>
-        <v>0.20659999999999998</v>
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="I32" s="28">
+        <f>SUM(F32,G32,H32)</f>
+        <v>0.22169999999999998</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>299.0593342981187</v>
+        <f>E32/F32</f>
+        <v>312.77501774308018</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
-        <v>0.66892545982575025</v>
+        <f>F32/I32</f>
+        <v>0.63554352728912955</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
-        <v>0.11374636979670863</v>
+        <f>G32/I32</f>
+        <v>0.11998195760036086</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>0.21732817037754118</v>
+        <f>H32/I32</f>
+        <v>0.24447451511050972</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
-        <v>5.685942414710864E-3</v>
+        <f>(G32/1000)/(E32/10000)</f>
+        <v>6.0358520535511682E-3</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
-        <v>7.7914893617021272</v>
+        <f>(F32+H32)/G32</f>
+        <v>7.3345864661654137</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
-        <v>30.709760906326192</v>
+        <f>LN(I32*1000)/((E32/10000)*42)</f>
+        <v>29.181524612479418</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
-        <v>0.12692344182584614</v>
+        <f>LN(I32*1000)/(42)</f>
+        <v>0.1286029789671968</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2">
-        <v>26</v>
-      </c>
-      <c r="D33" s="3">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="D33" s="2">
+        <v>11.2</v>
       </c>
       <c r="E33" s="2">
-        <v>44.07</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.1409</v>
+        <v>56.98</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.16800000000000001</v>
       </c>
       <c r="G33" s="4">
-        <v>2.6599999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H33" s="4">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="I33" s="26">
-        <f t="shared" si="0"/>
-        <v>0.22169999999999998</v>
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="I33" s="28">
+        <f>SUM(F33,G33,H33)</f>
+        <v>0.29510000000000003</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
-        <v>312.77501774308018</v>
+        <f>E33/F33</f>
+        <v>339.16666666666663</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>0.63554352728912955</v>
+        <f>F33/I33</f>
+        <v>0.5692985428668248</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
-        <v>0.11998195760036086</v>
+        <f>G33/I33</f>
+        <v>0.17282277194171464</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>0.24447451511050972</v>
+        <f>H33/I33</f>
+        <v>0.25787868519146051</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
-        <v>6.0358520535511682E-3</v>
+        <f>(G33/1000)/(E33/10000)</f>
+        <v>8.9505089505089504E-3</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
-        <v>7.3345864661654137</v>
+        <f>(F33+H33)/G33</f>
+        <v>4.7862745098039223</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
-        <v>29.181524612479418</v>
+        <f>LN(I33*1000)/((E33/10000)*42)</f>
+        <v>23.764872728730609</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="8"/>
-        <v>0.1286029789671968</v>
+        <f>LN(I33*1000)/(42)</f>
+        <v>0.13541224480830699</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2">
-        <v>11.2</v>
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8</v>
       </c>
       <c r="E34" s="2">
-        <v>56.98</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.16800000000000001</v>
+        <v>22.76</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.10639999999999999</v>
       </c>
       <c r="G34" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="H34" s="4">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="I34" s="26">
-        <f t="shared" si="0"/>
-        <v>0.29510000000000003</v>
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="I34" s="28">
+        <f>SUM(F34,G34,H34)</f>
+        <v>0.19940000000000002</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>339.16666666666663</v>
+        <f>E34/F34</f>
+        <v>213.90977443609026</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
-        <v>0.5692985428668248</v>
+        <f>F34/I34</f>
+        <v>0.53360080240722163</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
-        <v>0.17282277194171464</v>
+        <f>G34/I34</f>
+        <v>0.18154463390170511</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
-        <v>0.25787868519146051</v>
+        <f>H34/I34</f>
+        <v>0.2848545636910732</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
-        <v>8.9505089505089504E-3</v>
+        <f>(G34/1000)/(E34/10000)</f>
+        <v>1.5905096660808436E-2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
-        <v>4.7862745098039223</v>
+        <f>(F34+H34)/G34</f>
+        <v>4.5082872928176796</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
-        <v>23.764872728730609</v>
+        <f>LN(I34*1000)/((E34/10000)*42)</f>
+        <v>55.394937416601152</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="8"/>
-        <v>0.13541224480830699</v>
+        <f>LN(I34*1000)/(42)</f>
+        <v>0.12607887756018424</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="D35" s="2">
+        <v>11.5</v>
       </c>
       <c r="E35" s="2">
-        <v>22.76</v>
+        <v>42.37</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10639999999999999</v>
+        <v>0.14019999999999999</v>
       </c>
       <c r="G35" s="4">
-        <v>3.6200000000000003E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="H35" s="4">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" si="0"/>
-        <v>0.19940000000000002</v>
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="I35" s="28">
+        <f>SUM(F35,G35,H35)</f>
+        <v>0.22739999999999999</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>213.90977443609026</v>
+        <f>E35/F35</f>
+        <v>302.21112696148361</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>0.53360080240722163</v>
+        <f>F35/I35</f>
+        <v>0.61653474054529467</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
-        <v>0.18154463390170511</v>
+        <f>G35/I35</f>
+        <v>0.11917326297273527</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
-        <v>0.2848545636910732</v>
+        <f>H35/I35</f>
+        <v>0.2642919964819701</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
-        <v>1.5905096660808436E-2</v>
+        <f>(G35/1000)/(E35/10000)</f>
+        <v>6.3960349303752656E-3</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
-        <v>4.5082872928176796</v>
+        <f>(F35+H35)/G35</f>
+        <v>7.391143911439114</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
-        <v>55.394937416601152</v>
+        <f>LN(I35*1000)/((E35/10000)*42)</f>
+        <v>30.495018832487254</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>0.12607887756018424</v>
+        <f>LN(I35*1000)/(42)</f>
+        <v>0.12920739479324847</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2">
-        <v>11.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E36" s="2">
-        <v>42.37</v>
+        <v>37.4</v>
       </c>
       <c r="F36" s="4">
-        <v>0.14019999999999999</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="G36" s="4">
-        <v>2.7099999999999999E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="H36" s="4">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="I36" s="26">
-        <f t="shared" si="0"/>
-        <v>0.22739999999999999</v>
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I36" s="28">
+        <f>SUM(F36,G36,H36)</f>
+        <v>0.21160000000000001</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>302.21112696148361</v>
+        <f>E36/F36</f>
+        <v>300.88495575221242</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0.61653474054529467</v>
+        <f>F36/I36</f>
+        <v>0.58742911153119082</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
-        <v>0.11917326297273527</v>
+        <f>G36/I36</f>
+        <v>0.16398865784499056</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
-        <v>0.2642919964819701</v>
+        <f>H36/I36</f>
+        <v>0.24858223062381851</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
-        <v>6.3960349303752656E-3</v>
+        <f>(G36/1000)/(E36/10000)</f>
+        <v>9.2780748663101615E-3</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
-        <v>7.391143911439114</v>
+        <f>(F36+H36)/G36</f>
+        <v>5.0979827089337171</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
-        <v>30.495018832487254</v>
+        <f>LN(I36*1000)/((E36/10000)*42)</f>
+        <v>34.088984593736598</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>0.12920739479324847</v>
+        <f>LN(I36*1000)/(42)</f>
+        <v>0.12749280238057487</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E37" s="2">
-        <v>37.4</v>
+        <v>8.6</v>
+      </c>
+      <c r="E37" s="5">
+        <v>16</v>
       </c>
       <c r="F37" s="4">
-        <v>0.12429999999999999</v>
+        <v>7.1800000000000003E-2</v>
       </c>
       <c r="G37" s="4">
-        <v>3.4700000000000002E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="H37" s="4">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="I37" s="26">
-        <f t="shared" si="0"/>
-        <v>0.21160000000000001</v>
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="I37" s="28">
+        <f>SUM(F37,G37,H37)</f>
+        <v>0.1426</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>300.88495575221242</v>
+        <f>E37/F37</f>
+        <v>222.84122562674094</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>0.58742911153119082</v>
+        <f>F37/I37</f>
+        <v>0.50350631136044877</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
-        <v>0.16398865784499056</v>
+        <f>G37/I37</f>
+        <v>0.16549789621318373</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
-        <v>0.24858223062381851</v>
+        <f>H37/I37</f>
+        <v>0.33099579242636745</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
-        <v>9.2780748663101615E-3</v>
+        <f>(G37/1000)/(E37/10000)</f>
+        <v>1.4749999999999999E-2</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
-        <v>5.0979827089337171</v>
+        <f>(F37+H37)/G37</f>
+        <v>5.0423728813559325</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
-        <v>34.088984593736598</v>
+        <f>LN(I37*1000)/((E37/10000)*42)</f>
+        <v>73.810171249705277</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>0.12749280238057487</v>
+        <f>LN(I37*1000)/(42)</f>
+        <v>0.11809627399952846</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E38" s="5">
-        <v>16</v>
+        <v>10.1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>30.37</v>
       </c>
       <c r="F38" s="4">
-        <v>7.1800000000000003E-2</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="G38" s="4">
-        <v>2.3599999999999999E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="H38" s="4">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" si="0"/>
-        <v>0.1426</v>
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="I38" s="28">
+        <f>SUM(F38,G38,H38)</f>
+        <v>0.22859999999999997</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>222.84122562674094</v>
+        <f>E38/F38</f>
+        <v>238.94571203776556</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>0.50350631136044877</v>
+        <f>F38/I38</f>
+        <v>0.55599300087489067</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
-        <v>0.16549789621318373</v>
+        <f>G38/I38</f>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
-        <v>0.33099579242636745</v>
+        <f>H38/I38</f>
+        <v>0.2773403324584427</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
-        <v>1.4749999999999999E-2</v>
+        <f>(G38/1000)/(E38/10000)</f>
+        <v>1.2545274942377347E-2</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
-        <v>5.0423728813559325</v>
+        <f>(F38+H38)/G38</f>
+        <v>5</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
-        <v>73.810171249705277</v>
+        <f>LN(I38*1000)/((E38/10000)*42)</f>
+        <v>42.585679409196963</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="8"/>
-        <v>0.11809627399952846</v>
+        <f>LN(I38*1000)/(42)</f>
+        <v>0.12933270836573119</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2">
-        <v>21</v>
-      </c>
-      <c r="D39" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>30.37</v>
+        <v>14</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5">
+        <v>14.5</v>
       </c>
       <c r="F39" s="4">
-        <v>0.12709999999999999</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="G39" s="4">
-        <v>3.8100000000000002E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="H39" s="4">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="I39" s="26">
-        <f t="shared" si="0"/>
-        <v>0.22859999999999997</v>
+        <v>3.85E-2</v>
+      </c>
+      <c r="I39" s="28">
+        <f>SUM(F39,G39,H39)</f>
+        <v>0.11959999999999998</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>238.94571203776556</v>
+        <f>E39/F39</f>
+        <v>214.18020679468245</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>0.55599300087489067</v>
+        <f>F39/I39</f>
+        <v>0.56605351170568563</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
-        <v>0.16666666666666669</v>
+        <f>G39/I39</f>
+        <v>0.11204013377926424</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
-        <v>0.2773403324584427</v>
+        <f>H39/I39</f>
+        <v>0.32190635451505023</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
-        <v>1.2545274942377347E-2</v>
+        <f>(G39/1000)/(E39/10000)</f>
+        <v>9.2413793103448289E-3</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>(F39+H39)/G39</f>
+        <v>7.9253731343283569</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
-        <v>42.585679409196963</v>
+        <f>LN(I39*1000)/((E39/10000)*42)</f>
+        <v>78.557517923095745</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="8"/>
-        <v>0.12933270836573119</v>
+        <f>LN(I39*1000)/(42)</f>
+        <v>0.11390840098848883</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>14</v>
-      </c>
-      <c r="D40" s="3">
-        <v>9</v>
-      </c>
-      <c r="E40" s="5">
-        <v>14.5</v>
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>19.72</v>
       </c>
       <c r="F40" s="4">
-        <v>6.7699999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G40" s="4">
-        <v>1.34E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H40" s="4">
-        <v>3.85E-2</v>
-      </c>
-      <c r="I40" s="26">
-        <f t="shared" si="0"/>
-        <v>0.11959999999999998</v>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="I40" s="28">
+        <f>SUM(F40,G40,H40)</f>
+        <v>0.11130000000000001</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>214.18020679468245</v>
+        <f>E40/F40</f>
+        <v>303.38461538461536</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0.56605351170568563</v>
+        <f>F40/I40</f>
+        <v>0.58400718778077265</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
-        <v>0.11204013377926424</v>
+        <f>G40/I40</f>
+        <v>0.13477088948787061</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
-        <v>0.32190635451505023</v>
+        <f>H40/I40</f>
+        <v>0.28122192273135665</v>
       </c>
       <c r="N40">
-        <f t="shared" si="5"/>
-        <v>9.2413793103448289E-3</v>
+        <f>(G40/1000)/(E40/10000)</f>
+        <v>7.6064908722109532E-3</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
-        <v>7.9253731343283569</v>
+        <f>(F40+H40)/G40</f>
+        <v>6.42</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
-        <v>78.557517923095745</v>
+        <f>LN(I40*1000)/((E40/10000)*42)</f>
+        <v>56.894490223624786</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="8"/>
-        <v>0.11390840098848883</v>
+        <f>LN(I40*1000)/(42)</f>
+        <v>0.11219593472098807</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E41" s="2">
-        <v>19.72</v>
+        <v>22.21</v>
       </c>
       <c r="F41" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.1067</v>
       </c>
       <c r="G41" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="H41" s="4">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="I41" s="26">
-        <f t="shared" si="0"/>
-        <v>0.11130000000000001</v>
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="I41" s="28">
+        <f>SUM(F41,G41,H41)</f>
+        <v>0.1767</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>303.38461538461536</v>
+        <f>E41/F41</f>
+        <v>208.15370196813495</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>0.58400718778077265</v>
+        <f>F41/I41</f>
+        <v>0.60384833050367859</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
-        <v>0.13477088948787061</v>
+        <f>G41/I41</f>
+        <v>0.14374646293152235</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
-        <v>0.28122192273135665</v>
+        <f>H41/I41</f>
+        <v>0.25240520656479909</v>
       </c>
       <c r="N41">
-        <f t="shared" si="5"/>
-        <v>7.6064908722109532E-3</v>
+        <f>(G41/1000)/(E41/10000)</f>
+        <v>1.1436289959477711E-2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
-        <v>6.42</v>
+        <f>(F41+H41)/G41</f>
+        <v>5.9566929133858268</v>
       </c>
       <c r="P41">
-        <f t="shared" si="7"/>
-        <v>56.894490223624786</v>
+        <f>LN(I41*1000)/((E41/10000)*42)</f>
+        <v>55.471081015905014</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="8"/>
-        <v>0.11219593472098807</v>
+        <f>LN(I41*1000)/(42)</f>
+        <v>0.12320127093632502</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="E42" s="2">
-        <v>22.21</v>
+        <v>20.43</v>
       </c>
       <c r="F42" s="4">
-        <v>0.1067</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="G42" s="4">
-        <v>2.5399999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="H42" s="4">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="I42" s="26">
-        <f t="shared" si="0"/>
-        <v>0.1767</v>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="I42" s="28">
+        <f>SUM(F42,G42,H42)</f>
+        <v>0.16159999999999999</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>208.15370196813495</v>
+        <f>E42/F42</f>
+        <v>242.63657957244655</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0.60384833050367859</v>
+        <f>F42/I42</f>
+        <v>0.52103960396039606</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
-        <v>0.14374646293152235</v>
+        <f>G42/I42</f>
+        <v>0.18502475247524752</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
-        <v>0.25240520656479909</v>
+        <f>H42/I42</f>
+        <v>0.29393564356435647</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
-        <v>1.1436289959477711E-2</v>
+        <f>(G42/1000)/(E42/10000)</f>
+        <v>1.4635340186000977E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
-        <v>5.9566929133858268</v>
+        <f>(F42+H42)/G42</f>
+        <v>4.4046822742474916</v>
       </c>
       <c r="P42">
-        <f t="shared" si="7"/>
-        <v>55.471081015905014</v>
+        <f>LN(I42*1000)/((E42/10000)*42)</f>
+        <v>59.263036921508927</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="8"/>
-        <v>0.12320127093632502</v>
+        <f>LN(I42*1000)/(42)</f>
+        <v>0.12107438443064275</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2">
-        <v>7.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E43" s="2">
-        <v>20.43</v>
+        <v>25.5</v>
       </c>
       <c r="F43" s="4">
-        <v>8.4199999999999997E-2</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="G43" s="4">
-        <v>2.9899999999999999E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="H43" s="4">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="I43" s="26">
-        <f t="shared" si="0"/>
-        <v>0.16159999999999999</v>
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="I43" s="28">
+        <f>SUM(F43,G43,H43)</f>
+        <v>0.2351</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>242.63657957244655</v>
+        <f>E43/F43</f>
+        <v>215.37162162162161</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0.52103960396039606</v>
+        <f>F43/I43</f>
+        <v>0.50361548277328794</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
-        <v>0.18502475247524752</v>
+        <f>G43/I43</f>
+        <v>0.19821352615908125</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
-        <v>0.29393564356435647</v>
+        <f>H43/I43</f>
+        <v>0.29817099106763079</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
-        <v>1.4635340186000977E-2</v>
+        <f>(G43/1000)/(E43/10000)</f>
+        <v>1.8274509803921566E-2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
-        <v>4.4046822742474916</v>
+        <f>(F43+H43)/G43</f>
+        <v>4.0450643776824036</v>
       </c>
       <c r="P43">
-        <f t="shared" si="7"/>
-        <v>59.263036921508927</v>
+        <f>LN(I43*1000)/((E43/10000)*42)</f>
+        <v>50.980494449542711</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="8"/>
-        <v>0.12107438443064275</v>
+        <f>LN(I43*1000)/(42)</f>
+        <v>0.1300002608463339</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
-        <v>9.3000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="E44" s="2">
-        <v>25.5</v>
+        <v>30.65</v>
       </c>
       <c r="F44" s="4">
-        <v>0.11840000000000001</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="G44" s="4">
-        <v>4.6600000000000003E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="H44" s="4">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="I44" s="26">
-        <f t="shared" si="0"/>
-        <v>0.2351</v>
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="I44" s="28">
+        <f>SUM(F44,G44,H44)</f>
+        <v>0.17649999999999999</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>215.37162162162161</v>
+        <f>E44/F44</f>
+        <v>289.42398489140697</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
-        <v>0.50361548277328794</v>
+        <f>F44/I44</f>
+        <v>0.6</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
-        <v>0.19821352615908125</v>
+        <f>G44/I44</f>
+        <v>0.14674220963172804</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
-        <v>0.29817099106763079</v>
+        <f>H44/I44</f>
+        <v>0.25325779036827195</v>
       </c>
       <c r="N44">
-        <f t="shared" si="5"/>
-        <v>1.8274509803921566E-2</v>
+        <f>(G44/1000)/(E44/10000)</f>
+        <v>8.4502446982055463E-3</v>
       </c>
       <c r="O44">
-        <f t="shared" si="6"/>
-        <v>4.0450643776824036</v>
+        <f>(F44+H44)/G44</f>
+        <v>5.8146718146718142</v>
       </c>
       <c r="P44">
-        <f t="shared" si="7"/>
-        <v>50.980494449542711</v>
+        <f>LN(I44*1000)/((E44/10000)*42)</f>
+        <v>40.187375719516432</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="8"/>
-        <v>0.1300002608463339</v>
+        <f>LN(I44*1000)/(42)</f>
+        <v>0.12317430658031789</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
       <c r="E45" s="2">
-        <v>30.65</v>
+        <v>19.89</v>
       </c>
       <c r="F45" s="4">
-        <v>0.10589999999999999</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="G45" s="4">
-        <v>2.5899999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H45" s="4">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="I45" s="26">
-        <f t="shared" si="0"/>
-        <v>0.17649999999999999</v>
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="I45" s="28">
+        <f>SUM(F45,G45,H45)</f>
+        <v>0.15789999999999998</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>289.42398489140697</v>
+        <f>E45/F45</f>
+        <v>285.36585365853659</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f>F45/I45</f>
+        <v>0.44141861937935406</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
-        <v>0.14674220963172804</v>
+        <f>G45/I45</f>
+        <v>0.24699176694110198</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
-        <v>0.25325779036827195</v>
+        <f>H45/I45</f>
+        <v>0.31158961367954408</v>
       </c>
       <c r="N45">
-        <f t="shared" si="5"/>
-        <v>8.4502446982055463E-3</v>
+        <f>(G45/1000)/(E45/10000)</f>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="O45">
-        <f t="shared" si="6"/>
-        <v>5.8146718146718142</v>
+        <f>(F45+H45)/G45</f>
+        <v>3.048717948717949</v>
       </c>
       <c r="P45">
-        <f t="shared" si="7"/>
-        <v>40.187375719516432</v>
+        <f>LN(I45*1000)/((E45/10000)*42)</f>
+        <v>60.594722416883286</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="8"/>
-        <v>0.12317430658031789</v>
+        <f>LN(I45*1000)/(42)</f>
+        <v>0.12052290288718086</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
@@ -3056,246 +3463,246 @@
         <v>12</v>
       </c>
       <c r="D46" s="2">
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E46" s="2">
-        <v>19.89</v>
+        <v>28.18</v>
       </c>
       <c r="F46" s="4">
-        <v>6.9699999999999998E-2</v>
+        <v>0.1303</v>
       </c>
       <c r="G46" s="4">
-        <v>3.9E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="H46" s="4">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="I46" s="26">
-        <f t="shared" si="0"/>
-        <v>0.15789999999999998</v>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="I46" s="28">
+        <f>SUM(F46,G46,H46)</f>
+        <v>0.24560000000000001</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>285.36585365853659</v>
+        <f>E46/F46</f>
+        <v>216.2701458173446</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0.44141861937935406</v>
+        <f>F46/I46</f>
+        <v>0.53053745928338758</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
-        <v>0.24699176694110198</v>
+        <f>G46/I46</f>
+        <v>0.21009771986970682</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
-        <v>0.31158961367954408</v>
+        <f>H46/I46</f>
+        <v>0.25936482084690554</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
-        <v>1.9607843137254902E-2</v>
+        <f>(G46/1000)/(E46/10000)</f>
+        <v>1.8310858765081619E-2</v>
       </c>
       <c r="O46">
-        <f t="shared" si="6"/>
-        <v>3.048717948717949</v>
+        <f>(F46+H46)/G46</f>
+        <v>3.7596899224806202</v>
       </c>
       <c r="P46">
-        <f t="shared" si="7"/>
-        <v>60.594722416883286</v>
+        <f>LN(I46*1000)/((E46/10000)*42)</f>
+        <v>46.501269021198652</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="8"/>
-        <v>0.12052290288718086</v>
+        <f>LN(I46*1000)/(42)</f>
+        <v>0.13104057610173778</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
-        <v>9.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="E47" s="2">
-        <v>28.18</v>
+        <v>21.18</v>
       </c>
       <c r="F47" s="4">
-        <v>0.1303</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="G47" s="4">
-        <v>5.16E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H47" s="4">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="I47" s="26">
-        <f t="shared" si="0"/>
-        <v>0.24560000000000001</v>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="I47" s="28">
+        <f>SUM(F47,G47,H47)</f>
+        <v>0.13780000000000001</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>216.2701458173446</v>
+        <f>E47/F47</f>
+        <v>277.58846657929223</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0.53053745928338758</v>
+        <f>F47/I47</f>
+        <v>0.55370101596516696</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
-        <v>0.21009771986970682</v>
+        <f>G47/I47</f>
+        <v>0.13062409288824381</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
-        <v>0.25936482084690554</v>
+        <f>H47/I47</f>
+        <v>0.3156748911465892</v>
       </c>
       <c r="N47">
-        <f t="shared" si="5"/>
-        <v>1.8310858765081619E-2</v>
+        <f>(G47/1000)/(E47/10000)</f>
+        <v>8.4985835694050983E-3</v>
       </c>
       <c r="O47">
-        <f t="shared" si="6"/>
-        <v>3.7596899224806202</v>
+        <f>(F47+H47)/G47</f>
+        <v>6.6555555555555559</v>
       </c>
       <c r="P47">
-        <f t="shared" si="7"/>
-        <v>46.501269021198652</v>
+        <f>LN(I47*1000)/((E47/10000)*42)</f>
+        <v>55.373480806011486</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="8"/>
-        <v>0.13104057610173778</v>
+        <f>LN(I47*1000)/(42)</f>
+        <v>0.11728103234713234</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2">
-        <v>7.4</v>
+        <v>12</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8</v>
       </c>
       <c r="E48" s="2">
-        <v>21.18</v>
+        <v>23.95</v>
       </c>
       <c r="F48" s="4">
-        <v>7.6300000000000007E-2</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="G48" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="H48" s="4">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="I48" s="26">
-        <f t="shared" si="0"/>
-        <v>0.13780000000000001</v>
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="I48" s="28">
+        <f>SUM(F48,G48,H48)</f>
+        <v>0.15279999999999999</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>277.58846657929223</v>
+        <f>E48/F48</f>
+        <v>285.79952267303099</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
-        <v>0.55370101596516696</v>
+        <f>F48/I48</f>
+        <v>0.54842931937172779</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
-        <v>0.13062409288824381</v>
+        <f>G48/I48</f>
+        <v>0.15968586387434558</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
-        <v>0.3156748911465892</v>
+        <f>H48/I48</f>
+        <v>0.29188481675392675</v>
       </c>
       <c r="N48">
-        <f t="shared" si="5"/>
-        <v>8.4985835694050983E-3</v>
+        <f>(G48/1000)/(E48/10000)</f>
+        <v>1.0187891440501045E-2</v>
       </c>
       <c r="O48">
-        <f t="shared" si="6"/>
-        <v>6.6555555555555559</v>
+        <f>(F48+H48)/G48</f>
+        <v>5.2622950819672134</v>
       </c>
       <c r="P48">
-        <f t="shared" si="7"/>
-        <v>55.373480806011486</v>
+        <f>LN(I48*1000)/((E48/10000)*42)</f>
+        <v>49.996320476512778</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="8"/>
-        <v>0.11728103234713234</v>
+        <f>LN(I48*1000)/(42)</f>
+        <v>0.1197411875412481</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="2">
-        <v>12</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>12.2</v>
       </c>
       <c r="E49" s="2">
-        <v>23.95</v>
-      </c>
-      <c r="F49" s="4">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="G49" s="4">
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="I49" s="26">
-        <f t="shared" si="0"/>
-        <v>0.15279999999999999</v>
+        <v>50.93</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="G49" s="18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H49" s="18">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="I49" s="28">
+        <f>SUM(F49,G49,H49)</f>
+        <v>0.2974</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>285.79952267303099</v>
+        <f>E49/F49</f>
+        <v>292.36509758897819</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0.54842931937172779</v>
+        <f>F49/I49</f>
+        <v>0.58574310692669806</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
-        <v>0.15968586387434558</v>
+        <f>G49/I49</f>
+        <v>0.11432414256893074</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
-        <v>0.29188481675392675</v>
+        <f>H49/I49</f>
+        <v>0.29993275050437124</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
-        <v>1.0187891440501045E-2</v>
+        <f>(G49/1000)/(E49/10000)</f>
+        <v>6.6758295699980361E-3</v>
       </c>
       <c r="O49">
-        <f t="shared" si="6"/>
-        <v>5.2622950819672134</v>
+        <f>(F49+H49)/G49</f>
+        <v>7.74705882352941</v>
       </c>
       <c r="P49">
-        <f t="shared" si="7"/>
-        <v>49.996320476512778</v>
+        <f>LN(I49*1000)/((E49/10000)*42)</f>
+        <v>26.624208923667659</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="8"/>
-        <v>0.1197411875412481</v>
+        <f>LN(I49*1000)/(42)</f>
+        <v>0.13559709604823939</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>15</v>
@@ -3304,612 +3711,1052 @@
         <v>16</v>
       </c>
       <c r="D50" s="2">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="E50" s="2">
-        <v>50.93</v>
-      </c>
-      <c r="I50" s="26"/>
+        <v>68.59</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G50" s="18">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="H50" s="18">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I50" s="28">
+        <f>SUM(F50,G50,H50)</f>
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="J50">
+        <f>E50/F50</f>
+        <v>286.9874476987448</v>
+      </c>
+      <c r="K50">
+        <f>F50/I50</f>
+        <v>0.66610925306577473</v>
+      </c>
+      <c r="L50">
+        <f>G50/I50</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="M50">
+        <f>H50/I50</f>
+        <v>0.23132664437012262</v>
+      </c>
+      <c r="N50">
+        <f>(G50/1000)/(E50/10000)</f>
+        <v>5.3652135879865863E-3</v>
+      </c>
+      <c r="O50">
+        <f>(F50+H50)/G50</f>
+        <v>8.75</v>
+      </c>
+      <c r="P50">
+        <f>LN(I50*1000)/((E50/10000)*42)</f>
+        <v>20.420737196816976</v>
+      </c>
+      <c r="Q50">
+        <f>LN(I50*1000)/(42)</f>
+        <v>0.14006583643296763</v>
+      </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="E51" s="2">
-        <v>68.59</v>
-      </c>
-      <c r="I51" s="26"/>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="G51" s="18">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H51" s="18">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="I51" s="28">
+        <f>SUM(F51,G51,H51)</f>
+        <v>0.2591</v>
+      </c>
+      <c r="J51">
+        <f>E51/F51</f>
+        <v>210.91843288375082</v>
+      </c>
+      <c r="K51">
+        <f>F51/I51</f>
+        <v>0.60092628328830566</v>
+      </c>
+      <c r="L51">
+        <f>G51/I51</f>
+        <v>0.13624083365495948</v>
+      </c>
+      <c r="M51">
+        <f>H51/I51</f>
+        <v>0.26283288305673486</v>
+      </c>
+      <c r="N51">
+        <f>(G51/1000)/(E51/10000)</f>
+        <v>1.0749086479902555E-2</v>
+      </c>
+      <c r="O51">
+        <f>(F51+H51)/G51</f>
+        <v>6.3399433427762046</v>
+      </c>
+      <c r="P51">
+        <f>LN(I51*1000)/((E51/10000)*42)</f>
+        <v>40.290688530016119</v>
+      </c>
+      <c r="Q51">
+        <f>LN(I51*1000)/(42)</f>
+        <v>0.13231462113257295</v>
+      </c>
     </row>
     <row r="52" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2">
+        <v>12</v>
+      </c>
+      <c r="D52" s="3">
         <v>8</v>
       </c>
-      <c r="D52" s="2">
-        <v>8.5</v>
-      </c>
       <c r="E52" s="2">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="I52" s="26"/>
+        <v>38.99</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="G52" s="18">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="H52" s="18">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="I52" s="28">
+        <f>SUM(F52,G52,H52)</f>
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="J52">
+        <f>E52/F52</f>
+        <v>250.25673940949937</v>
+      </c>
+      <c r="K52">
+        <f>F52/I52</f>
+        <v>0.59059893858984081</v>
+      </c>
+      <c r="L52">
+        <f>G52/I52</f>
+        <v>0.19787717968157698</v>
+      </c>
+      <c r="M52">
+        <f>H52/I52</f>
+        <v>0.21152388172858227</v>
+      </c>
+      <c r="N52">
+        <f>(G52/1000)/(E52/10000)</f>
+        <v>1.3388048217491665E-2</v>
+      </c>
+      <c r="O52">
+        <f>(F52+H52)/G52</f>
+        <v>4.0536398467432946</v>
+      </c>
+      <c r="P52">
+        <f>LN(I52*1000)/((E52/10000)*42)</f>
+        <v>34.045306124178445</v>
+      </c>
+      <c r="Q52">
+        <f>LN(I52*1000)/(42)</f>
+        <v>0.13274264857817175</v>
+      </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
         <v>8</v>
       </c>
       <c r="E53" s="2">
-        <v>38.99</v>
-      </c>
-      <c r="I53" s="26"/>
+        <v>29.47</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0.1166</v>
+      </c>
+      <c r="G53" s="18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H53" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I53" s="28">
+        <f>SUM(F53,G53,H53)</f>
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="J53">
+        <f>E53/F53</f>
+        <v>252.74442538593482</v>
+      </c>
+      <c r="K53">
+        <f>F53/I53</f>
+        <v>0.53831948291782084</v>
+      </c>
+      <c r="L53">
+        <f>G53/I53</f>
+        <v>0.16620498614958448</v>
+      </c>
+      <c r="M53">
+        <f>H53/I53</f>
+        <v>0.29547553093259465</v>
+      </c>
+      <c r="N53">
+        <f>(G53/1000)/(E53/10000)</f>
+        <v>1.2215812690872071E-2</v>
+      </c>
+      <c r="O53">
+        <f>(F53+H53)/G53</f>
+        <v>5.0166666666666666</v>
+      </c>
+      <c r="P53">
+        <f>LN(I53*1000)/((E53/10000)*42)</f>
+        <v>43.450581984640479</v>
+      </c>
+      <c r="Q53">
+        <f>LN(I53*1000)/(42)</f>
+        <v>0.12804886510873548</v>
+      </c>
     </row>
     <row r="54" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="2">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10.5</v>
       </c>
       <c r="E54" s="2">
-        <v>29.47</v>
-      </c>
-      <c r="I54" s="26"/>
+        <v>29.54</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.111</v>
+      </c>
+      <c r="G54" s="18">
+        <v>2.06E-2</v>
+      </c>
+      <c r="H54" s="18">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="I54" s="28">
+        <f>SUM(F54,G54,H54)</f>
+        <v>0.18009999999999998</v>
+      </c>
+      <c r="J54">
+        <f>E54/F54</f>
+        <v>266.12612612612611</v>
+      </c>
+      <c r="K54">
+        <f>F54/I54</f>
+        <v>0.61632426429761256</v>
+      </c>
+      <c r="L54">
+        <f>G54/I54</f>
+        <v>0.11438089950027763</v>
+      </c>
+      <c r="M54">
+        <f>H54/I54</f>
+        <v>0.26929483620210998</v>
+      </c>
+      <c r="N54">
+        <f>(G54/1000)/(E54/10000)</f>
+        <v>6.9735951252538923E-3</v>
+      </c>
+      <c r="O54">
+        <f>(F54+H54)/G54</f>
+        <v>7.7427184466019421</v>
+      </c>
+      <c r="P54">
+        <f>LN(I54*1000)/((E54/10000)*42)</f>
+        <v>41.860207726262296</v>
+      </c>
+      <c r="Q54">
+        <f>LN(I54*1000)/(42)</f>
+        <v>0.12365505362337881</v>
+      </c>
     </row>
     <row r="55" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="E55" s="2">
-        <v>29.54</v>
-      </c>
-      <c r="I55" s="26"/>
+        <v>36.57</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="G55" s="18">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H55" s="18">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="I55" s="28">
+        <f>SUM(F55,G55,H55)</f>
+        <v>0.22859999999999997</v>
+      </c>
+      <c r="J55">
+        <f>E55/F55</f>
+        <v>280.44478527607367</v>
+      </c>
+      <c r="K55">
+        <f>F55/I55</f>
+        <v>0.57042869641294836</v>
+      </c>
+      <c r="L55">
+        <f>G55/I55</f>
+        <v>0.1115485564304462</v>
+      </c>
+      <c r="M55">
+        <f>H55/I55</f>
+        <v>0.31802274715660545</v>
+      </c>
+      <c r="N55">
+        <f>(G55/1000)/(E55/10000)</f>
+        <v>6.9729286300246104E-3</v>
+      </c>
+      <c r="O55">
+        <f>(F55+H55)/G55</f>
+        <v>7.9647058823529422</v>
+      </c>
+      <c r="P55">
+        <f>LN(I55*1000)/((E55/10000)*42)</f>
+        <v>35.365793920079625</v>
+      </c>
+      <c r="Q55">
+        <f>LN(I55*1000)/(42)</f>
+        <v>0.12933270836573119</v>
+      </c>
     </row>
     <row r="56" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2">
-        <v>36.57</v>
-      </c>
-      <c r="I56" s="26"/>
+        <v>49.39</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G56" s="18">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="H56" s="18">
+        <v>0.1032</v>
+      </c>
+      <c r="I56" s="28">
+        <f>SUM(F56,G56,H56)</f>
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="J56">
+        <f>E56/F56</f>
+        <v>248.19095477386935</v>
+      </c>
+      <c r="K56">
+        <f>F56/I56</f>
+        <v>0.56421888290331723</v>
+      </c>
+      <c r="L56">
+        <f>G56/I56</f>
+        <v>0.14318117380209811</v>
+      </c>
+      <c r="M56">
+        <f>H56/I56</f>
+        <v>0.29259994329458461</v>
+      </c>
+      <c r="N56">
+        <f>(G56/1000)/(E56/10000)</f>
+        <v>1.022474185057704E-2</v>
+      </c>
+      <c r="O56">
+        <f>(F56+H56)/G56</f>
+        <v>5.9841584158415841</v>
+      </c>
+      <c r="P56">
+        <f>LN(I56*1000)/((E56/10000)*42)</f>
+        <v>28.27648664777913</v>
+      </c>
+      <c r="Q56">
+        <f>LN(I56*1000)/(42)</f>
+        <v>0.1396575675533811</v>
+      </c>
     </row>
     <row r="57" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
-        <v>11</v>
+        <v>8.1</v>
       </c>
       <c r="E57" s="2">
-        <v>49.39</v>
-      </c>
-      <c r="I57" s="26"/>
+        <v>39.03</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="G57" s="18">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="H57" s="18">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="I57" s="28">
+        <f>SUM(F57,G57,H57)</f>
+        <v>0.21130000000000002</v>
+      </c>
+      <c r="J57">
+        <f>E57/F57</f>
+        <v>283.85454545454542</v>
+      </c>
+      <c r="K57">
+        <f>F57/I57</f>
+        <v>0.65073355418835777</v>
+      </c>
+      <c r="L57">
+        <f>G57/I57</f>
+        <v>0.12399432087079981</v>
+      </c>
+      <c r="M57">
+        <f>H57/I57</f>
+        <v>0.22527212494084239</v>
+      </c>
+      <c r="N57">
+        <f>(G57/1000)/(E57/10000)</f>
+        <v>6.7127850371509088E-3</v>
+      </c>
+      <c r="O57">
+        <f>(F57+H57)/G57</f>
+        <v>7.0648854961832059</v>
+      </c>
+      <c r="P57">
+        <f>LN(I57*1000)/((E57/10000)*42)</f>
+        <v>32.656679993545936</v>
+      </c>
+      <c r="Q57">
+        <f>LN(I57*1000)/(42)</f>
+        <v>0.1274590220148098</v>
+      </c>
     </row>
     <row r="58" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="E58" s="2">
-        <v>39.03</v>
-      </c>
-      <c r="I58" s="26"/>
+        <v>25.72</v>
+      </c>
+      <c r="F58" s="18">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="G58" s="18">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H58" s="18">
+        <v>5.67E-2</v>
+      </c>
+      <c r="I58" s="28">
+        <f>SUM(F58,G58,H58)</f>
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="J58">
+        <f>E58/F58</f>
+        <v>203.80348652931852</v>
+      </c>
+      <c r="K58">
+        <f>F58/I58</f>
+        <v>0.57836846929422547</v>
+      </c>
+      <c r="L58">
+        <f>G58/I58</f>
+        <v>0.16177818515123737</v>
+      </c>
+      <c r="M58">
+        <f>H58/I58</f>
+        <v>0.2598533455545371</v>
+      </c>
+      <c r="N58">
+        <f>(G58/1000)/(E58/10000)</f>
+        <v>1.3724727838258163E-2</v>
+      </c>
+      <c r="O58">
+        <f>(F58+H58)/G58</f>
+        <v>5.1813031161473093</v>
+      </c>
+      <c r="P58">
+        <f>LN(I58*1000)/((E58/10000)*42)</f>
+        <v>49.853847972663203</v>
+      </c>
+      <c r="Q58">
+        <f>LN(I58*1000)/(42)</f>
+        <v>0.12822409698568976</v>
+      </c>
     </row>
     <row r="59" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
-        <v>43</v>
-      </c>
-      <c r="D59" s="2">
-        <v>9.5</v>
+        <v>14</v>
+      </c>
+      <c r="D59" s="3">
+        <v>11.5</v>
       </c>
       <c r="E59" s="2">
-        <v>25.72</v>
-      </c>
-      <c r="I59" s="26"/>
+        <v>39.770000000000003</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="H59" s="4">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="I59" s="28">
+        <f>SUM(F59,G59,H59)</f>
+        <v>0.2261</v>
+      </c>
+      <c r="J59">
+        <f>E59/F59</f>
+        <v>261.81698485845953</v>
+      </c>
+      <c r="K59">
+        <f>F59/I59</f>
+        <v>0.671826625386997</v>
+      </c>
+      <c r="L59">
+        <f>G59/I59</f>
+        <v>6.1477222467934536E-2</v>
+      </c>
+      <c r="M59">
+        <f>H59/I59</f>
+        <v>0.26669615214506853</v>
+      </c>
+      <c r="N59">
+        <f>(G59/1000)/(E59/10000)</f>
+        <v>3.4950968066381686E-3</v>
+      </c>
+      <c r="O59">
+        <f>(F59+H59)/G59</f>
+        <v>15.266187050359713</v>
+      </c>
+      <c r="P59">
+        <f>LN(I59*1000)/((E59/10000)*42)</f>
+        <v>32.454334921536471</v>
+      </c>
+      <c r="Q59">
+        <f>LN(I59*1000)/(42)</f>
+        <v>0.12907088998295058</v>
+      </c>
     </row>
     <row r="60" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="E60" s="2">
-        <v>39.770000000000003</v>
+        <v>14.51</v>
       </c>
       <c r="F60" s="4">
-        <v>0.15190000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G60" s="4">
-        <v>1.3899999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="H60" s="4">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="I60" s="26">
-        <f t="shared" si="0"/>
-        <v>0.2261</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I60" s="28">
+        <f>SUM(F60,G60,H60)</f>
+        <v>9.6200000000000008E-2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>261.81698485845953</v>
+        <f>E60/F60</f>
+        <v>273.77358490566036</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
-        <v>0.671826625386997</v>
+        <f>F60/I60</f>
+        <v>0.55093555093555091</v>
       </c>
       <c r="L60">
-        <f t="shared" si="3"/>
-        <v>6.1477222467934536E-2</v>
+        <f>G60/I60</f>
+        <v>0.10602910602910603</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
-        <v>0.26669615214506853</v>
+        <f>H60/I60</f>
+        <v>0.343035343035343</v>
       </c>
       <c r="N60">
-        <f t="shared" si="5"/>
-        <v>3.4950968066381686E-3</v>
+        <f>(G60/1000)/(E60/10000)</f>
+        <v>7.0296347346657483E-3</v>
       </c>
       <c r="O60">
-        <f t="shared" si="6"/>
-        <v>15.266187050359713</v>
+        <f>(F60+H60)/G60</f>
+        <v>8.4313725490196063</v>
       </c>
       <c r="P60">
-        <f t="shared" si="7"/>
-        <v>32.454334921536471</v>
+        <f>LN(I60*1000)/((E60/10000)*42)</f>
+        <v>74.930743291517516</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="8"/>
-        <v>0.12907088998295058</v>
+        <f>LN(I60*1000)/(42)</f>
+        <v>0.10872450851599191</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D61" s="3">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="E61" s="2">
-        <v>14.51</v>
+        <v>48.04</v>
       </c>
       <c r="F61" s="4">
-        <v>5.2999999999999999E-2</v>
+        <v>0.15540000000000001</v>
       </c>
       <c r="G61" s="4">
-        <v>1.0200000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="H61" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I61" s="26">
-        <f t="shared" si="0"/>
-        <v>9.6200000000000008E-2</v>
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="I61" s="28">
+        <f>SUM(F61,G61,H61)</f>
+        <v>0.26400000000000001</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
-        <v>273.77358490566036</v>
+        <f>E61/F61</f>
+        <v>309.13770913770912</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
-        <v>0.55093555093555091</v>
+        <f>F61/I61</f>
+        <v>0.58863636363636362</v>
       </c>
       <c r="L61">
-        <f t="shared" si="3"/>
-        <v>0.10602910602910603</v>
+        <f>G61/I61</f>
+        <v>0.14583333333333331</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
-        <v>0.343035343035343</v>
+        <f>H61/I61</f>
+        <v>0.26553030303030301</v>
       </c>
       <c r="N61">
-        <f t="shared" si="5"/>
-        <v>7.0296347346657483E-3</v>
+        <f>(G61/1000)/(E61/10000)</f>
+        <v>8.0141548709408827E-3</v>
       </c>
       <c r="O61">
-        <f t="shared" si="6"/>
-        <v>8.4313725490196063</v>
+        <f>(F61+H61)/G61</f>
+        <v>5.8571428571428577</v>
       </c>
       <c r="P61">
-        <f t="shared" si="7"/>
-        <v>74.930743291517516</v>
+        <f>LN(I61*1000)/((E61/10000)*42)</f>
+        <v>27.635448154049779</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="8"/>
-        <v>0.10872450851599191</v>
+        <f>LN(I61*1000)/(42)</f>
+        <v>0.13276069293205514</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D62" s="3">
-        <v>12.6</v>
+        <v>14.5</v>
       </c>
       <c r="E62" s="2">
-        <v>48.04</v>
+        <v>50.27</v>
       </c>
       <c r="F62" s="4">
-        <v>0.15540000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="G62" s="4">
-        <v>3.85E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="H62" s="4">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="I62" s="26">
-        <f t="shared" si="0"/>
-        <v>0.26400000000000001</v>
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="I62" s="28">
+        <f>SUM(F62,G62,H62)</f>
+        <v>0.29649999999999999</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>309.13770913770912</v>
+        <f>E62/F62</f>
+        <v>261.82291666666669</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
-        <v>0.58863636363636362</v>
+        <f>F62/I62</f>
+        <v>0.64755480607082638</v>
       </c>
       <c r="L62">
-        <f t="shared" si="3"/>
-        <v>0.14583333333333331</v>
+        <f>G62/I62</f>
+        <v>8.4991568296795952E-2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
-        <v>0.26553030303030301</v>
+        <f>H62/I62</f>
+        <v>0.26745362563237773</v>
       </c>
       <c r="N62">
-        <f t="shared" si="5"/>
-        <v>8.0141548709408827E-3</v>
+        <f>(G62/1000)/(E62/10000)</f>
+        <v>5.0129301770439625E-3</v>
       </c>
       <c r="O62">
-        <f t="shared" si="6"/>
-        <v>5.8571428571428577</v>
+        <f>(F62+H62)/G62</f>
+        <v>10.765873015873016</v>
       </c>
       <c r="P62">
-        <f t="shared" si="7"/>
-        <v>27.635448154049779</v>
+        <f>LN(I62*1000)/((E62/10000)*42)</f>
+        <v>26.959405962269365</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="8"/>
-        <v>0.13276069293205514</v>
+        <f>LN(I62*1000)/(42)</f>
+        <v>0.1355249337723281</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="2">
-        <v>18</v>
-      </c>
-      <c r="D63" s="3">
-        <v>14.5</v>
+        <v>12</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="E63" s="2">
-        <v>50.27</v>
+        <v>26.52</v>
       </c>
       <c r="F63" s="4">
-        <v>0.192</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G63" s="4">
-        <v>2.52E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H63" s="4">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="I63" s="26">
-        <f t="shared" si="0"/>
-        <v>0.29649999999999999</v>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="I63" s="28">
+        <f>SUM(F63,G63,H63)</f>
+        <v>0.14550000000000002</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>261.82291666666669</v>
+        <f>E63/F63</f>
+        <v>327.40740740740739</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
-        <v>0.64755480607082638</v>
+        <f>F63/I63</f>
+        <v>0.55670103092783496</v>
       </c>
       <c r="L63">
-        <f t="shared" si="3"/>
-        <v>8.4991568296795952E-2</v>
+        <f>G63/I63</f>
+        <v>0.21305841924398622</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
-        <v>0.26745362563237773</v>
+        <f>H63/I63</f>
+        <v>0.23024054982817868</v>
       </c>
       <c r="N63">
-        <f t="shared" si="5"/>
-        <v>5.0129301770439625E-3</v>
+        <f>(G63/1000)/(E63/10000)</f>
+        <v>1.1689291101055809E-2</v>
       </c>
       <c r="O63">
-        <f t="shared" si="6"/>
-        <v>10.765873015873016</v>
+        <f>(F63+H63)/G63</f>
+        <v>3.6935483870967745</v>
       </c>
       <c r="P63">
-        <f t="shared" si="7"/>
-        <v>26.959405962269365</v>
+        <f>LN(I63*1000)/((E63/10000)*42)</f>
+        <v>44.711772665836634</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="8"/>
-        <v>0.1355249337723281</v>
+        <f>LN(I63*1000)/(42)</f>
+        <v>0.11857562110979875</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64" s="3">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="E64" s="2">
-        <v>50.73</v>
+        <v>46.37</v>
       </c>
       <c r="F64" s="4">
-        <v>4.4499999999999998E-2</v>
+        <v>0.1183</v>
       </c>
       <c r="G64" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.46E-2</v>
       </c>
       <c r="H64" s="4">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="I64" s="26">
-        <f t="shared" si="0"/>
-        <v>7.22E-2</v>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I64" s="28">
+        <f>SUM(F64,G64,H64)</f>
+        <v>0.1759</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>1140</v>
+        <f>E64/F64</f>
+        <v>391.96956889264578</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
-        <v>0.61634349030470914</v>
+        <f>F64/I64</f>
+        <v>0.67254121660034116</v>
       </c>
       <c r="L64">
-        <f t="shared" si="3"/>
-        <v>0.13157894736842105</v>
+        <f>G64/I64</f>
+        <v>8.3001705514496871E-2</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
-        <v>0.25207756232686984</v>
+        <f>H64/I64</f>
+        <v>0.24445707788516199</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
-        <v>1.8726591760299628E-3</v>
+        <f>(G64/1000)/(E64/10000)</f>
+        <v>3.1485874487815401E-3</v>
       </c>
       <c r="O64">
-        <f t="shared" si="6"/>
-        <v>6.6000000000000005</v>
+        <f>(F64+H64)/G64</f>
+        <v>11.047945205479452</v>
       </c>
       <c r="P64">
-        <f t="shared" si="7"/>
-        <v>20.085044286271771</v>
+        <f>LN(I64*1000)/((E64/10000)*42)</f>
+        <v>26.5458766019877</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="8"/>
-        <v>0.10189142966425668</v>
+        <f>LN(I64*1000)/(42)</f>
+        <v>0.12309322980341696</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="E65" s="2">
-        <v>26.52</v>
+        <v>22.71</v>
       </c>
       <c r="F65" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="G65" s="4">
-        <v>3.1E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="H65" s="4">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="I65" s="26">
-        <f t="shared" si="0"/>
-        <v>0.14550000000000002</v>
+        <v>4.36E-2</v>
+      </c>
+      <c r="I65" s="28">
+        <f>SUM(F65,G65,H65)</f>
+        <v>0.1923</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>327.40740740740739</v>
+        <f>E65/F65</f>
+        <v>225.97014925373134</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
-        <v>0.55670103092783496</v>
+        <f>F65/I65</f>
+        <v>0.5226209048361935</v>
       </c>
       <c r="L65">
-        <f t="shared" si="3"/>
-        <v>0.21305841924398622</v>
+        <f>G65/I65</f>
+        <v>0.25065002600104003</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
-        <v>0.23024054982817868</v>
+        <f>H65/I65</f>
+        <v>0.2267290691627665</v>
       </c>
       <c r="N65">
-        <f t="shared" si="5"/>
-        <v>1.1689291101055809E-2</v>
+        <f>(G65/1000)/(E65/10000)</f>
+        <v>2.1224130339057682E-2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="6"/>
-        <v>3.6935483870967745</v>
+        <f>(F65+H65)/G65</f>
+        <v>2.9896265560165975</v>
       </c>
       <c r="P65">
-        <f t="shared" si="7"/>
-        <v>44.711772665836634</v>
+        <f>LN(I65*1000)/((E65/10000)*42)</f>
+        <v>55.136783172870501</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="8"/>
-        <v>0.11857562110979875</v>
+        <f>LN(I65*1000)/(42)</f>
+        <v>0.1252156345855889</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D66" s="3">
-        <v>10.4</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2">
-        <v>46.37</v>
+        <v>57.79</v>
       </c>
       <c r="F66" s="4">
-        <v>0.1183</v>
+        <v>0.17369999999999999</v>
       </c>
       <c r="G66" s="4">
-        <v>1.46E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="H66" s="4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I66" s="26">
-        <f t="shared" si="0"/>
-        <v>0.1759</v>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I66" s="28">
+        <f>SUM(F66,G66,H66)</f>
+        <v>0.26910000000000001</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>391.96956889264578</v>
+        <f>E66/F66</f>
+        <v>332.70005757052388</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
-        <v>0.67254121660034116</v>
+        <f>F66/I66</f>
+        <v>0.64548494983277593</v>
       </c>
       <c r="L66">
-        <f t="shared" si="3"/>
-        <v>8.3001705514496871E-2</v>
+        <f>G66/I66</f>
+        <v>8.3240431066518017E-2</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
-        <v>0.24445707788516199</v>
+        <f>H66/I66</f>
+        <v>0.27127461910070605</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
-        <v>3.1485874487815401E-3</v>
+        <f>(G66/1000)/(E66/10000)</f>
+        <v>3.8761031320297627E-3</v>
       </c>
       <c r="O66">
-        <f t="shared" si="6"/>
-        <v>11.047945205479452</v>
+        <f>(F66+H66)/G66</f>
+        <v>11.013392857142856</v>
       </c>
       <c r="P66">
-        <f t="shared" si="7"/>
-        <v>26.5458766019877</v>
+        <f>LN(I66*1000)/((E66/10000)*42)</f>
+        <v>23.05178461314307</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="8"/>
-        <v>0.12309322980341696</v>
+        <f>LN(I66*1000)/(42)</f>
+        <v>0.13321626327935382</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>16</v>
@@ -3918,494 +4765,494 @@
         <v>10</v>
       </c>
       <c r="D67" s="2">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="E67" s="2">
-        <v>22.71</v>
+        <v>25.25</v>
       </c>
       <c r="F67" s="4">
-        <v>0.10050000000000001</v>
+        <v>0.1003</v>
       </c>
       <c r="G67" s="4">
-        <v>4.82E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="H67" s="4">
-        <v>4.36E-2</v>
-      </c>
-      <c r="I67" s="26">
-        <f t="shared" ref="I67:I106" si="9">SUM(F67,G67,H67)</f>
-        <v>0.1923</v>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="I67" s="28">
+        <f>SUM(F67,G67,H67)</f>
+        <v>0.1749</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J106" si="10">E67/F67</f>
-        <v>225.97014925373134</v>
+        <f>E67/F67</f>
+        <v>251.74476570289133</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K106" si="11">F67/I67</f>
-        <v>0.5226209048361935</v>
+        <f>F67/I67</f>
+        <v>0.57347055460263008</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L106" si="12">G67/I67</f>
-        <v>0.25065002600104003</v>
+        <f>G67/I67</f>
+        <v>0.16237850200114351</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M106" si="13">H67/I67</f>
-        <v>0.2267290691627665</v>
+        <f>H67/I67</f>
+        <v>0.26415094339622641</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="14">(G67/1000)/(E67/10000)</f>
-        <v>2.1224130339057682E-2</v>
+        <f>(G67/1000)/(E67/10000)</f>
+        <v>1.1247524752475249E-2</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O106" si="15">(F67+H67)/G67</f>
-        <v>2.9896265560165975</v>
+        <f>(F67+H67)/G67</f>
+        <v>5.1584507042253511</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P106" si="16">LN(I67*1000)/((E67/10000)*42)</f>
-        <v>55.136783172870501</v>
+        <f>LN(I67*1000)/((E67/10000)*42)</f>
+        <v>48.696033776752067</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q106" si="17">LN(I67*1000)/(42)</f>
-        <v>0.1252156345855889</v>
+        <f>LN(I67*1000)/(42)</f>
+        <v>0.12295748528629896</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="2">
-        <v>28</v>
-      </c>
-      <c r="D68" s="3">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
+        <v>11.5</v>
       </c>
       <c r="E68" s="2">
-        <v>57.79</v>
+        <v>30.08</v>
       </c>
       <c r="F68" s="4">
-        <v>0.17369999999999999</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="G68" s="4">
-        <v>2.24E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="H68" s="4">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="I68" s="26">
-        <f t="shared" si="9"/>
-        <v>0.26910000000000001</v>
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="I68" s="28">
+        <f>SUM(F68,G68,H68)</f>
+        <v>0.1608</v>
       </c>
       <c r="J68">
-        <f t="shared" si="10"/>
-        <v>332.70005757052388</v>
+        <f>E68/F68</f>
+        <v>331.27753303964755</v>
       </c>
       <c r="K68">
-        <f t="shared" si="11"/>
-        <v>0.64548494983277593</v>
+        <f>F68/I68</f>
+        <v>0.56467661691542292</v>
       </c>
       <c r="L68">
-        <f t="shared" si="12"/>
-        <v>8.3240431066518017E-2</v>
+        <f>G68/I68</f>
+        <v>0.11318407960199006</v>
       </c>
       <c r="M68">
-        <f t="shared" si="13"/>
-        <v>0.27127461910070605</v>
+        <f>H68/I68</f>
+        <v>0.32213930348258707</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
-        <v>3.8761031320297627E-3</v>
+        <f>(G68/1000)/(E68/10000)</f>
+        <v>6.0505319148936179E-3</v>
       </c>
       <c r="O68">
-        <f t="shared" si="15"/>
-        <v>11.013392857142856</v>
+        <f>(F68+H68)/G68</f>
+        <v>7.8351648351648349</v>
       </c>
       <c r="P68">
-        <f t="shared" si="16"/>
-        <v>23.05178461314307</v>
+        <f>LN(I68*1000)/((E68/10000)*42)</f>
+        <v>40.211510232592971</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="17"/>
-        <v>0.13321626327935382</v>
+        <f>LN(I68*1000)/(42)</f>
+        <v>0.12095622277963966</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="2">
-        <v>10</v>
-      </c>
-      <c r="D69" s="2">
-        <v>10.1</v>
+        <v>12</v>
+      </c>
+      <c r="D69" s="3">
+        <v>12</v>
       </c>
       <c r="E69" s="2">
-        <v>25.25</v>
+        <v>34.75</v>
       </c>
       <c r="F69" s="4">
-        <v>0.1003</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G69" s="4">
-        <v>2.8400000000000002E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="H69" s="4">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="I69" s="26">
-        <f t="shared" si="9"/>
-        <v>0.1749</v>
+        <v>6.2E-2</v>
+      </c>
+      <c r="I69" s="28">
+        <f>SUM(F69,G69,H69)</f>
+        <v>0.19750000000000001</v>
       </c>
       <c r="J69">
-        <f t="shared" si="10"/>
-        <v>251.74476570289133</v>
+        <f>E69/F69</f>
+        <v>344.05940594059405</v>
       </c>
       <c r="K69">
-        <f t="shared" si="11"/>
-        <v>0.57347055460263008</v>
+        <f>F69/I69</f>
+        <v>0.5113924050632912</v>
       </c>
       <c r="L69">
-        <f t="shared" si="12"/>
-        <v>0.16237850200114351</v>
+        <f>G69/I69</f>
+        <v>0.17468354430379748</v>
       </c>
       <c r="M69">
-        <f t="shared" si="13"/>
-        <v>0.26415094339622641</v>
+        <f>H69/I69</f>
+        <v>0.3139240506329114</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
-        <v>1.1247524752475249E-2</v>
+        <f>(G69/1000)/(E69/10000)</f>
+        <v>9.9280575539568358E-3</v>
       </c>
       <c r="O69">
-        <f t="shared" si="15"/>
-        <v>5.1584507042253511</v>
+        <f>(F69+H69)/G69</f>
+        <v>4.72463768115942</v>
       </c>
       <c r="P69">
-        <f t="shared" si="16"/>
-        <v>48.696033776752067</v>
+        <f>LN(I69*1000)/((E69/10000)*42)</f>
+        <v>36.216091704975518</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="17"/>
-        <v>0.12295748528629896</v>
+        <f>LN(I69*1000)/(42)</f>
+        <v>0.12585091867478992</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2">
-        <v>11.5</v>
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>12.5</v>
       </c>
       <c r="E70" s="2">
-        <v>30.08</v>
+        <v>45.73</v>
       </c>
       <c r="F70" s="4">
-        <v>9.0800000000000006E-2</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="G70" s="4">
-        <v>1.8200000000000001E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="H70" s="4">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="I70" s="26">
-        <f t="shared" si="9"/>
-        <v>0.1608</v>
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="I70" s="28">
+        <f>SUM(F70,G70,H70)</f>
+        <v>0.2157</v>
       </c>
       <c r="J70">
-        <f t="shared" si="10"/>
-        <v>331.27753303964755</v>
+        <f>E70/F70</f>
+        <v>360.93133385951063</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
-        <v>0.56467661691542292</v>
+        <f>F70/I70</f>
+        <v>0.58738989337042191</v>
       </c>
       <c r="L70">
-        <f t="shared" si="12"/>
-        <v>0.11318407960199006</v>
+        <f>G70/I70</f>
+        <v>0.14928140936485859</v>
       </c>
       <c r="M70">
-        <f t="shared" si="13"/>
-        <v>0.32213930348258707</v>
+        <f>H70/I70</f>
+        <v>0.26332869726471952</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
-        <v>6.0505319148936179E-3</v>
+        <f>(G70/1000)/(E70/10000)</f>
+        <v>7.041329542969604E-3</v>
       </c>
       <c r="O70">
-        <f t="shared" si="15"/>
-        <v>7.8351648351648349</v>
+        <f>(F70+H70)/G70</f>
+        <v>5.6987577639751557</v>
       </c>
       <c r="P70">
-        <f t="shared" si="16"/>
-        <v>40.211510232592971</v>
+        <f>LN(I70*1000)/((E70/10000)*42)</f>
+        <v>27.97938496868322</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="17"/>
-        <v>0.12095622277963966</v>
+        <f>LN(I70*1000)/(42)</f>
+        <v>0.12794972746178837</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="E71" s="2">
-        <v>34.75</v>
+        <v>37.54</v>
       </c>
       <c r="F71" s="4">
-        <v>0.10100000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G71" s="4">
-        <v>3.4500000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H71" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="I71" s="26">
-        <f t="shared" si="9"/>
-        <v>0.19750000000000001</v>
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="I71" s="28">
+        <f>SUM(F71,G71,H71)</f>
+        <v>0.23820000000000002</v>
       </c>
       <c r="J71">
-        <f t="shared" si="10"/>
-        <v>344.05940594059405</v>
+        <f>E71/F71</f>
+        <v>276.02941176470586</v>
       </c>
       <c r="K71">
-        <f t="shared" si="11"/>
-        <v>0.5113924050632912</v>
+        <f>F71/I71</f>
+        <v>0.57094878253568426</v>
       </c>
       <c r="L71">
-        <f t="shared" si="12"/>
-        <v>0.17468354430379748</v>
+        <f>G71/I71</f>
+        <v>0.16792611251049536</v>
       </c>
       <c r="M71">
-        <f t="shared" si="13"/>
-        <v>0.3139240506329114</v>
+        <f>H71/I71</f>
+        <v>0.2611251049538203</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
-        <v>9.9280575539568358E-3</v>
+        <f>(G71/1000)/(E71/10000)</f>
+        <v>1.0655301012253596E-2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="15"/>
-        <v>4.72463768115942</v>
+        <f>(F71+H71)/G71</f>
+        <v>4.9550000000000001</v>
       </c>
       <c r="P71">
-        <f t="shared" si="16"/>
-        <v>36.216091704975518</v>
+        <f>LN(I71*1000)/((E71/10000)*42)</f>
+        <v>34.712881858850245</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="17"/>
-        <v>0.12585091867478992</v>
+        <f>LN(I71*1000)/(42)</f>
+        <v>0.1303121584981238</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D72" s="3">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="E72" s="2">
-        <v>45.73</v>
+        <v>41.26</v>
       </c>
       <c r="F72" s="4">
-        <v>0.12670000000000001</v>
+        <v>0.12470000000000001</v>
       </c>
       <c r="G72" s="4">
-        <v>3.2199999999999999E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="H72" s="4">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="I72" s="26">
-        <f t="shared" si="9"/>
-        <v>0.2157</v>
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="I72" s="28">
+        <f>SUM(F72,G72,H72)</f>
+        <v>0.22139999999999999</v>
       </c>
       <c r="J72">
-        <f t="shared" si="10"/>
-        <v>360.93133385951063</v>
+        <f>E72/F72</f>
+        <v>330.87409783480348</v>
       </c>
       <c r="K72">
-        <f t="shared" si="11"/>
-        <v>0.58738989337042191</v>
+        <f>F72/I72</f>
+        <v>0.56323396567299011</v>
       </c>
       <c r="L72">
-        <f t="shared" si="12"/>
-        <v>0.14928140936485859</v>
+        <f>G72/I72</f>
+        <v>0.13775971093044265</v>
       </c>
       <c r="M72">
-        <f t="shared" si="13"/>
-        <v>0.26332869726471952</v>
+        <f>H72/I72</f>
+        <v>0.2990063233965673</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
-        <v>7.041329542969604E-3</v>
+        <f>(G72/1000)/(E72/10000)</f>
+        <v>7.392147358216191E-3</v>
       </c>
       <c r="O72">
-        <f t="shared" si="15"/>
-        <v>5.6987577639751557</v>
+        <f>(F72+H72)/G72</f>
+        <v>6.2590163934426233</v>
       </c>
       <c r="P72">
-        <f t="shared" si="16"/>
-        <v>27.97938496868322</v>
+        <f>LN(I72*1000)/((E72/10000)*42)</f>
+        <v>31.161109689279005</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="17"/>
-        <v>0.12794972746178837</v>
+        <f>LN(I72*1000)/(42)</f>
+        <v>0.12857073857796517</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="2">
-        <v>16</v>
-      </c>
-      <c r="D73" s="3">
-        <v>11.5</v>
+        <v>12</v>
+      </c>
+      <c r="D73" s="2">
+        <v>12.5</v>
       </c>
       <c r="E73" s="2">
-        <v>37.54</v>
+        <v>47.9</v>
       </c>
       <c r="F73" s="4">
-        <v>0.13600000000000001</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="G73" s="4">
-        <v>0.04</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H73" s="4">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="I73" s="26">
-        <f t="shared" si="9"/>
-        <v>0.23820000000000002</v>
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="I73" s="28">
+        <f>SUM(F73,G73,H73)</f>
+        <v>0.23849999999999999</v>
       </c>
       <c r="J73">
-        <f t="shared" si="10"/>
-        <v>276.02941176470586</v>
+        <f>E73/F73</f>
+        <v>373.6349453978159</v>
       </c>
       <c r="K73">
-        <f t="shared" si="11"/>
-        <v>0.57094878253568426</v>
+        <f>F73/I73</f>
+        <v>0.53752620545073382</v>
       </c>
       <c r="L73">
-        <f t="shared" si="12"/>
-        <v>0.16792611251049536</v>
+        <f>G73/I73</f>
+        <v>7.9664570230607967E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="13"/>
-        <v>0.2611251049538203</v>
+        <f>H73/I73</f>
+        <v>0.38280922431865833</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
-        <v>1.0655301012253596E-2</v>
+        <f>(G73/1000)/(E73/10000)</f>
+        <v>3.9665970772442593E-3</v>
       </c>
       <c r="O73">
-        <f t="shared" si="15"/>
-        <v>4.9550000000000001</v>
+        <f>(F73+H73)/G73</f>
+        <v>11.55263157894737</v>
       </c>
       <c r="P73">
-        <f t="shared" si="16"/>
-        <v>34.712881858850245</v>
+        <f>LN(I73*1000)/((E73/10000)*42)</f>
+        <v>27.211299882336199</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="17"/>
-        <v>0.1303121584981238</v>
+        <f>LN(I73*1000)/(42)</f>
+        <v>0.13034212643639037</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="2">
-        <v>20</v>
-      </c>
-      <c r="D74" s="3">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D74" s="2">
+        <v>11.5</v>
       </c>
       <c r="E74" s="2">
-        <v>41.26</v>
+        <v>47.97</v>
       </c>
       <c r="F74" s="4">
-        <v>0.12470000000000001</v>
+        <v>0.14860000000000001</v>
       </c>
       <c r="G74" s="4">
-        <v>3.0499999999999999E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="H74" s="4">
-        <v>6.6199999999999995E-2</v>
-      </c>
-      <c r="I74" s="26">
-        <f t="shared" si="9"/>
-        <v>0.22139999999999999</v>
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="I74" s="28">
+        <f>SUM(F74,G74,H74)</f>
+        <v>0.24510000000000001</v>
       </c>
       <c r="J74">
-        <f t="shared" si="10"/>
-        <v>330.87409783480348</v>
+        <f>E74/F74</f>
+        <v>322.81292059219379</v>
       </c>
       <c r="K74">
-        <f t="shared" si="11"/>
-        <v>0.56323396567299011</v>
+        <f>F74/I74</f>
+        <v>0.60628314973480213</v>
       </c>
       <c r="L74">
-        <f t="shared" si="12"/>
-        <v>0.13775971093044265</v>
+        <f>G74/I74</f>
+        <v>0.15789473684210525</v>
       </c>
       <c r="M74">
-        <f t="shared" si="13"/>
-        <v>0.2990063233965673</v>
+        <f>H74/I74</f>
+        <v>0.23582211342309259</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
-        <v>7.392147358216191E-3</v>
+        <f>(G74/1000)/(E74/10000)</f>
+        <v>8.0675422138836769E-3</v>
       </c>
       <c r="O74">
-        <f t="shared" si="15"/>
-        <v>6.2590163934426233</v>
+        <f>(F74+H74)/G74</f>
+        <v>5.3333333333333339</v>
       </c>
       <c r="P74">
-        <f t="shared" si="16"/>
-        <v>31.161109689279005</v>
+        <f>LN(I74*1000)/((E74/10000)*42)</f>
+        <v>27.307078285704691</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="17"/>
-        <v>0.12857073857796517</v>
+        <f>LN(I74*1000)/(42)</f>
+        <v>0.1309920545365254</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
@@ -4414,1300 +5261,1300 @@
         <v>12</v>
       </c>
       <c r="D75" s="2">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="E75" s="2">
-        <v>47.9</v>
+        <v>27.54</v>
       </c>
       <c r="F75" s="4">
-        <v>0.12820000000000001</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="G75" s="4">
-        <v>1.9E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H75" s="4">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="I75" s="26">
-        <f t="shared" si="9"/>
-        <v>0.23849999999999999</v>
+        <v>3.95E-2</v>
+      </c>
+      <c r="I75" s="28">
+        <f>SUM(F75,G75,H75)</f>
+        <v>0.1293</v>
       </c>
       <c r="J75">
-        <f t="shared" si="10"/>
-        <v>373.6349453978159</v>
+        <f>E75/F75</f>
+        <v>421.74578866768758</v>
       </c>
       <c r="K75">
-        <f t="shared" si="11"/>
-        <v>0.53752620545073382</v>
+        <f>F75/I75</f>
+        <v>0.50502706883217319</v>
       </c>
       <c r="L75">
-        <f t="shared" si="12"/>
-        <v>7.9664570230607967E-2</v>
+        <f>G75/I75</f>
+        <v>0.1894818252126837</v>
       </c>
       <c r="M75">
-        <f t="shared" si="13"/>
-        <v>0.38280922431865833</v>
+        <f>H75/I75</f>
+        <v>0.30549110595514306</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
-        <v>3.9665970772442593E-3</v>
+        <f>(G75/1000)/(E75/10000)</f>
+        <v>8.8961510530137997E-3</v>
       </c>
       <c r="O75">
-        <f t="shared" si="15"/>
-        <v>11.55263157894737</v>
+        <f>(F75+H75)/G75</f>
+        <v>4.277551020408163</v>
       </c>
       <c r="P75">
-        <f t="shared" si="16"/>
-        <v>27.211299882336199</v>
+        <f>LN(I75*1000)/((E75/10000)*42)</f>
+        <v>42.035267193846281</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="17"/>
-        <v>0.13034212643639037</v>
+        <f>LN(I75*1000)/(42)</f>
+        <v>0.11576512585185265</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="E76" s="2">
-        <v>47.97</v>
+        <v>21.13</v>
       </c>
       <c r="F76" s="4">
-        <v>0.14860000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G76" s="4">
-        <v>3.8699999999999998E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="H76" s="4">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="I76" s="26">
-        <f t="shared" si="9"/>
-        <v>0.24510000000000001</v>
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="I76" s="28">
+        <f>SUM(F76,G76,H76)</f>
+        <v>0.18080000000000002</v>
       </c>
       <c r="J76">
-        <f t="shared" si="10"/>
-        <v>322.81292059219379</v>
+        <f>E76/F76</f>
+        <v>254.57831325301203</v>
       </c>
       <c r="K76">
-        <f t="shared" si="11"/>
-        <v>0.60628314973480213</v>
+        <f>F76/I76</f>
+        <v>0.45907079646017696</v>
       </c>
       <c r="L76">
-        <f t="shared" si="12"/>
-        <v>0.15789473684210525</v>
+        <f>G76/I76</f>
+        <v>0.15044247787610618</v>
       </c>
       <c r="M76">
-        <f t="shared" si="13"/>
-        <v>0.23582211342309259</v>
+        <f>H76/I76</f>
+        <v>0.39048672566371678</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
-        <v>8.0675422138836769E-3</v>
+        <f>(G76/1000)/(E76/10000)</f>
+        <v>1.2872692853762423E-2</v>
       </c>
       <c r="O76">
-        <f t="shared" si="15"/>
-        <v>5.3333333333333339</v>
+        <f>(F76+H76)/G76</f>
+        <v>5.647058823529413</v>
       </c>
       <c r="P76">
-        <f t="shared" si="16"/>
-        <v>27.307078285704691</v>
+        <f>LN(I76*1000)/((E76/10000)*42)</f>
+        <v>58.56479670022398</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="17"/>
-        <v>0.1309920545365254</v>
+        <f>LN(I76*1000)/(42)</f>
+        <v>0.12374741542757325</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="2">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2">
-        <v>9.5</v>
+        <v>6</v>
+      </c>
+      <c r="D77" s="3">
+        <v>7</v>
       </c>
       <c r="E77" s="2">
-        <v>27.54</v>
+        <v>10.26</v>
       </c>
       <c r="F77" s="4">
-        <v>6.5299999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G77" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="H77" s="4">
-        <v>3.95E-2</v>
-      </c>
-      <c r="I77" s="26">
-        <f t="shared" si="9"/>
-        <v>0.1293</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I77" s="28">
+        <f>SUM(F77,G77,H77)</f>
+        <v>0.1235</v>
       </c>
       <c r="J77">
-        <f t="shared" si="10"/>
-        <v>421.74578866768758</v>
+        <f>E77/F77</f>
+        <v>157.84615384615384</v>
       </c>
       <c r="K77">
-        <f t="shared" si="11"/>
-        <v>0.50502706883217319</v>
+        <f>F77/I77</f>
+        <v>0.52631578947368418</v>
       </c>
       <c r="L77">
-        <f t="shared" si="12"/>
-        <v>0.1894818252126837</v>
+        <f>G77/I77</f>
+        <v>0.19838056680161945</v>
       </c>
       <c r="M77">
-        <f t="shared" si="13"/>
-        <v>0.30549110595514306</v>
+        <f>H77/I77</f>
+        <v>0.2753036437246964</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
-        <v>8.8961510530137997E-3</v>
+        <f>(G77/1000)/(E77/10000)</f>
+        <v>2.3879142300194934E-2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="15"/>
-        <v>4.277551020408163</v>
+        <f>(F77+H77)/G77</f>
+        <v>4.0408163265306118</v>
       </c>
       <c r="P77">
-        <f t="shared" si="16"/>
-        <v>42.035267193846281</v>
+        <f>LN(I77*1000)/((E77/10000)*42)</f>
+        <v>111.76647999786579</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="17"/>
-        <v>0.11576512585185265</v>
+        <f>LN(I77*1000)/(42)</f>
+        <v>0.11467240847781028</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="2">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2">
-        <v>9.5</v>
+        <v>14</v>
+      </c>
+      <c r="D78" s="3">
+        <v>12</v>
       </c>
       <c r="E78" s="2">
-        <v>21.13</v>
+        <v>26.25</v>
       </c>
       <c r="F78" s="4">
-        <v>8.3000000000000004E-2</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="G78" s="4">
-        <v>2.7199999999999998E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="H78" s="4">
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="I78" s="26">
-        <f t="shared" si="9"/>
-        <v>0.18080000000000002</v>
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="I78" s="28">
+        <f>SUM(F78,G78,H78)</f>
+        <v>0.12809999999999999</v>
       </c>
       <c r="J78">
-        <f t="shared" si="10"/>
-        <v>254.57831325301203</v>
+        <f>E78/F78</f>
+        <v>327.71535580524341</v>
       </c>
       <c r="K78">
-        <f t="shared" si="11"/>
-        <v>0.45907079646017696</v>
+        <f>F78/I78</f>
+        <v>0.62529274004683844</v>
       </c>
       <c r="L78">
-        <f t="shared" si="12"/>
-        <v>0.15044247787610618</v>
+        <f>G78/I78</f>
+        <v>8.6651053864168631E-2</v>
       </c>
       <c r="M78">
-        <f t="shared" si="13"/>
-        <v>0.39048672566371678</v>
+        <f>H78/I78</f>
+        <v>0.28805620608899302</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
-        <v>1.2872692853762423E-2</v>
+        <f>(G78/1000)/(E78/10000)</f>
+        <v>4.2285714285714288E-3</v>
       </c>
       <c r="O78">
-        <f t="shared" si="15"/>
-        <v>5.647058823529413</v>
+        <f>(F78+H78)/G78</f>
+        <v>10.54054054054054</v>
       </c>
       <c r="P78">
-        <f t="shared" si="16"/>
-        <v>58.56479670022398</v>
+        <f>LN(I78*1000)/((E78/10000)*42)</f>
+        <v>44.016428198663846</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="17"/>
-        <v>0.12374741542757325</v>
+        <f>LN(I78*1000)/(42)</f>
+        <v>0.1155431240214926</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
-      </c>
-      <c r="D79" s="3">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D79" s="2">
+        <v>14.5</v>
       </c>
       <c r="E79" s="2">
-        <v>10.26</v>
+        <v>50.05</v>
       </c>
       <c r="F79" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="G79" s="4">
-        <v>2.4500000000000001E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="H79" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I79" s="26">
-        <f t="shared" si="9"/>
-        <v>0.1235</v>
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="I79" s="28">
+        <f>SUM(F79,G79,H79)</f>
+        <v>0.27890000000000004</v>
       </c>
       <c r="J79">
-        <f t="shared" si="10"/>
-        <v>157.84615384615384</v>
+        <f>E79/F79</f>
+        <v>277.90116601887837</v>
       </c>
       <c r="K79">
-        <f t="shared" si="11"/>
-        <v>0.52631578947368418</v>
+        <f>F79/I79</f>
+        <v>0.64575116529221943</v>
       </c>
       <c r="L79">
-        <f t="shared" si="12"/>
-        <v>0.19838056680161945</v>
+        <f>G79/I79</f>
+        <v>9.214772319827895E-2</v>
       </c>
       <c r="M79">
-        <f t="shared" si="13"/>
-        <v>0.2753036437246964</v>
+        <f>H79/I79</f>
+        <v>0.26210111150950155</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
-        <v>2.3879142300194934E-2</v>
+        <f>(G79/1000)/(E79/10000)</f>
+        <v>5.1348651348651353E-3</v>
       </c>
       <c r="O79">
-        <f t="shared" si="15"/>
-        <v>4.0408163265306118</v>
+        <f>(F79+H79)/G79</f>
+        <v>9.8521400778210104</v>
       </c>
       <c r="P79">
-        <f t="shared" si="16"/>
-        <v>111.76647999786579</v>
+        <f>LN(I79*1000)/((E79/10000)*42)</f>
+        <v>26.786800316985122</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="17"/>
-        <v>0.11467240847781028</v>
+        <f>LN(I79*1000)/(42)</f>
+        <v>0.13406793558651056</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" s="2">
-        <v>26.25</v>
+        <v>47.13</v>
       </c>
       <c r="F80" s="4">
-        <v>8.0100000000000005E-2</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="G80" s="4">
-        <v>1.11E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="H80" s="4">
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="I80" s="26">
-        <f t="shared" si="9"/>
-        <v>0.12809999999999999</v>
+        <v>5.67E-2</v>
+      </c>
+      <c r="I80" s="28">
+        <f>SUM(F80,G80,H80)</f>
+        <v>0.2467</v>
       </c>
       <c r="J80">
-        <f t="shared" si="10"/>
-        <v>327.71535580524341</v>
+        <f>E80/F80</f>
+        <v>300.57397959183675</v>
       </c>
       <c r="K80">
-        <f t="shared" si="11"/>
-        <v>0.62529274004683844</v>
+        <f>F80/I80</f>
+        <v>0.63558978516416698</v>
       </c>
       <c r="L80">
-        <f t="shared" si="12"/>
-        <v>8.6651053864168631E-2</v>
+        <f>G80/I80</f>
+        <v>0.13457640859343331</v>
       </c>
       <c r="M80">
-        <f t="shared" si="13"/>
-        <v>0.28805620608899302</v>
+        <f>H80/I80</f>
+        <v>0.22983380624239969</v>
       </c>
       <c r="N80">
-        <f t="shared" si="14"/>
-        <v>4.2285714285714288E-3</v>
+        <f>(G80/1000)/(E80/10000)</f>
+        <v>7.0443454275408443E-3</v>
       </c>
       <c r="O80">
-        <f t="shared" si="15"/>
-        <v>10.54054054054054</v>
+        <f>(F80+H80)/G80</f>
+        <v>6.4307228915662646</v>
       </c>
       <c r="P80">
-        <f t="shared" si="16"/>
-        <v>44.016428198663846</v>
+        <f>LN(I80*1000)/((E80/10000)*42)</f>
+        <v>27.82664475935513</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="17"/>
-        <v>0.1155431240214926</v>
+        <f>LN(I80*1000)/(42)</f>
+        <v>0.13114697675084072</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2">
         <v>14.5</v>
       </c>
       <c r="E81" s="2">
-        <v>50.05</v>
+        <v>39.56</v>
       </c>
       <c r="F81" s="4">
-        <v>0.18010000000000001</v>
+        <v>0.15229999999999999</v>
       </c>
       <c r="G81" s="4">
-        <v>2.5700000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H81" s="4">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="I81" s="26">
-        <f t="shared" si="9"/>
-        <v>0.27890000000000004</v>
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="I81" s="28">
+        <f>SUM(F81,G81,H81)</f>
+        <v>0.2422</v>
       </c>
       <c r="J81">
-        <f t="shared" si="10"/>
-        <v>277.90116601887837</v>
+        <f>E81/F81</f>
+        <v>259.75049244911361</v>
       </c>
       <c r="K81">
-        <f t="shared" si="11"/>
-        <v>0.64575116529221943</v>
+        <f>F81/I81</f>
+        <v>0.62881915772089181</v>
       </c>
       <c r="L81">
-        <f t="shared" si="12"/>
-        <v>9.214772319827895E-2</v>
+        <f>G81/I81</f>
+        <v>0.12386457473162675</v>
       </c>
       <c r="M81">
-        <f t="shared" si="13"/>
-        <v>0.26210111150950155</v>
+        <f>H81/I81</f>
+        <v>0.24731626754748143</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
-        <v>5.1348651348651353E-3</v>
+        <f>(G81/1000)/(E81/10000)</f>
+        <v>7.5834175935288158E-3</v>
       </c>
       <c r="O81">
-        <f t="shared" si="15"/>
-        <v>9.8521400778210104</v>
+        <f>(F81+H81)/G81</f>
+        <v>7.0733333333333333</v>
       </c>
       <c r="P81">
-        <f t="shared" si="16"/>
-        <v>26.786800316985122</v>
+        <f>LN(I81*1000)/((E81/10000)*42)</f>
+        <v>33.040612397798348</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="17"/>
-        <v>0.13406793558651056</v>
+        <f>LN(I81*1000)/(42)</f>
+        <v>0.13070866264569028</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="2">
-        <v>15</v>
-      </c>
-      <c r="D82" s="3">
         <v>13</v>
       </c>
+      <c r="D82" s="2">
+        <v>15.2</v>
+      </c>
       <c r="E82" s="2">
-        <v>47.13</v>
+        <v>62.62</v>
       </c>
       <c r="F82" s="4">
-        <v>0.15679999999999999</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="G82" s="4">
-        <v>3.32E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="H82" s="4">
-        <v>5.67E-2</v>
-      </c>
-      <c r="I82" s="26">
-        <f t="shared" si="9"/>
-        <v>0.2467</v>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I82" s="28">
+        <f>SUM(F82,G82,H82)</f>
+        <v>0.28820000000000001</v>
       </c>
       <c r="J82">
-        <f t="shared" si="10"/>
-        <v>300.57397959183675</v>
+        <f>E82/F82</f>
+        <v>341.43947655398034</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
-        <v>0.63558978516416698</v>
+        <f>F82/I82</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="L82">
-        <f t="shared" si="12"/>
-        <v>0.13457640859343331</v>
+        <f>G82/I82</f>
+        <v>7.9111727966689804E-2</v>
       </c>
       <c r="M82">
-        <f t="shared" si="13"/>
-        <v>0.22983380624239969</v>
+        <f>H82/I82</f>
+        <v>0.28452463566967384</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
-        <v>7.0443454275408443E-3</v>
+        <f>(G82/1000)/(E82/10000)</f>
+        <v>3.6410092622165451E-3</v>
       </c>
       <c r="O82">
-        <f t="shared" si="15"/>
-        <v>6.4307228915662646</v>
+        <f>(F82+H82)/G82</f>
+        <v>11.640350877192983</v>
       </c>
       <c r="P82">
-        <f t="shared" si="16"/>
-        <v>27.82664475935513</v>
+        <f>LN(I82*1000)/((E82/10000)*42)</f>
+        <v>21.53448116213222</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="17"/>
-        <v>0.13114697675084072</v>
+        <f>LN(I82*1000)/(42)</f>
+        <v>0.13484892103727195</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="2">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2">
-        <v>14.5</v>
+        <v>21</v>
+      </c>
+      <c r="D83" s="3">
+        <v>6.5</v>
       </c>
       <c r="E83" s="2">
-        <v>39.56</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="F83" s="4">
-        <v>0.15229999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="G83" s="4">
-        <v>0.03</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="H83" s="4">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="I83" s="26">
-        <f t="shared" si="9"/>
-        <v>0.2422</v>
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="I83" s="28">
+        <f>SUM(F83,G83,H83)</f>
+        <v>0.2069</v>
       </c>
       <c r="J83">
-        <f t="shared" si="10"/>
-        <v>259.75049244911361</v>
+        <f>E83/F83</f>
+        <v>292.38095238095241</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
-        <v>0.62881915772089181</v>
+        <f>F83/I83</f>
+        <v>0.60898985016916385</v>
       </c>
       <c r="L83">
-        <f t="shared" si="12"/>
-        <v>0.12386457473162675</v>
+        <f>G83/I83</f>
+        <v>0.19526341227646205</v>
       </c>
       <c r="M83">
-        <f t="shared" si="13"/>
-        <v>0.24731626754748143</v>
+        <f>H83/I83</f>
+        <v>0.19574673755437411</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
-        <v>7.5834175935288158E-3</v>
+        <f>(G83/1000)/(E83/10000)</f>
+        <v>1.0966340933767643E-2</v>
       </c>
       <c r="O83">
-        <f t="shared" si="15"/>
-        <v>7.0733333333333333</v>
+        <f>(F83+H83)/G83</f>
+        <v>4.1212871287128721</v>
       </c>
       <c r="P83">
-        <f t="shared" si="16"/>
-        <v>33.040612397798348</v>
+        <f>LN(I83*1000)/((E83/10000)*42)</f>
+        <v>34.461995144715225</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="17"/>
-        <v>0.13070866264569028</v>
+        <f>LN(I83*1000)/(42)</f>
+        <v>0.12695799011313089</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2">
-        <v>15.2</v>
+        <v>11</v>
       </c>
       <c r="E84" s="2">
-        <v>62.62</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="F84" s="4">
-        <v>0.18340000000000001</v>
+        <v>0.1278</v>
       </c>
       <c r="G84" s="4">
-        <v>2.2800000000000001E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="H84" s="4">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="I84" s="26">
-        <f t="shared" si="9"/>
-        <v>0.28820000000000001</v>
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="I84" s="28">
+        <f>SUM(F84,G84,H84)</f>
+        <v>0.19739999999999999</v>
       </c>
       <c r="J84">
-        <f t="shared" si="10"/>
-        <v>341.43947655398034</v>
+        <f>E84/F84</f>
+        <v>309.78090766823163</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
-        <v>0.63636363636363635</v>
+        <f>F84/I84</f>
+        <v>0.64741641337386024</v>
       </c>
       <c r="L84">
-        <f t="shared" si="12"/>
-        <v>7.9111727966689804E-2</v>
+        <f>G84/I84</f>
+        <v>0.12259371833839919</v>
       </c>
       <c r="M84">
-        <f t="shared" si="13"/>
-        <v>0.28452463566967384</v>
+        <f>H84/I84</f>
+        <v>0.22998986828774065</v>
       </c>
       <c r="N84">
-        <f t="shared" si="14"/>
-        <v>3.6410092622165451E-3</v>
+        <f>(G84/1000)/(E84/10000)</f>
+        <v>6.1126547107855506E-3</v>
       </c>
       <c r="O84">
-        <f t="shared" si="15"/>
-        <v>11.640350877192983</v>
+        <f>(F84+H84)/G84</f>
+        <v>7.1570247933884295</v>
       </c>
       <c r="P84">
-        <f t="shared" si="16"/>
-        <v>21.53448116213222</v>
+        <f>LN(I84*1000)/((E84/10000)*42)</f>
+        <v>31.785516586676412</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="17"/>
-        <v>0.13484892103727195</v>
+        <f>LN(I84*1000)/(42)</f>
+        <v>0.12583886016665194</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D85" s="3">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="E85" s="2">
-        <v>36.840000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="F85" s="4">
-        <v>0.126</v>
+        <v>0.1249</v>
       </c>
       <c r="G85" s="4">
-        <v>4.0399999999999998E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H85" s="4">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="I85" s="26">
-        <f t="shared" si="9"/>
-        <v>0.2069</v>
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="I85" s="28">
+        <f>SUM(F85,G85,H85)</f>
+        <v>0.18309999999999998</v>
       </c>
       <c r="J85">
-        <f t="shared" si="10"/>
-        <v>292.38095238095241</v>
+        <f>E85/F85</f>
+        <v>236.18895116092875</v>
       </c>
       <c r="K85">
-        <f t="shared" si="11"/>
-        <v>0.60898985016916385</v>
+        <f>F85/I85</f>
+        <v>0.68214090660841076</v>
       </c>
       <c r="L85">
-        <f t="shared" si="12"/>
-        <v>0.19526341227646205</v>
+        <f>G85/I85</f>
+        <v>7.0999453850354999E-2</v>
       </c>
       <c r="M85">
-        <f t="shared" si="13"/>
-        <v>0.19574673755437411</v>
+        <f>H85/I85</f>
+        <v>0.2468596395412343</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
-        <v>1.0966340933767643E-2</v>
+        <f>(G85/1000)/(E85/10000)</f>
+        <v>4.4067796610169491E-3</v>
       </c>
       <c r="O85">
-        <f t="shared" si="15"/>
-        <v>4.1212871287128721</v>
+        <f>(F85+H85)/G85</f>
+        <v>13.084615384615386</v>
       </c>
       <c r="P85">
-        <f t="shared" si="16"/>
-        <v>34.461995144715225</v>
+        <f>LN(I85*1000)/((E85/10000)*42)</f>
+        <v>42.050302273450079</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="17"/>
-        <v>0.12695799011313089</v>
+        <f>LN(I85*1000)/(42)</f>
+        <v>0.12404839170667772</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="2">
-        <v>22</v>
-      </c>
-      <c r="D86" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D86" s="3">
+        <v>9</v>
       </c>
       <c r="E86" s="2">
-        <v>39.590000000000003</v>
+        <v>25.66</v>
       </c>
       <c r="F86" s="4">
-        <v>0.1278</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="G86" s="4">
-        <v>2.4199999999999999E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="H86" s="4">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="I86" s="26">
-        <f t="shared" si="9"/>
-        <v>0.19739999999999999</v>
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="I86" s="28">
+        <f>SUM(F86,G86,H86)</f>
+        <v>0.17469999999999999</v>
       </c>
       <c r="J86">
-        <f t="shared" si="10"/>
-        <v>309.78090766823163</v>
+        <f>E86/F86</f>
+        <v>267.57038581856102</v>
       </c>
       <c r="K86">
-        <f t="shared" si="11"/>
-        <v>0.64741641337386024</v>
+        <f>F86/I86</f>
+        <v>0.54894104178591874</v>
       </c>
       <c r="L86">
-        <f t="shared" si="12"/>
-        <v>0.12259371833839919</v>
+        <f>G86/I86</f>
+        <v>0.1522610188895249</v>
       </c>
       <c r="M86">
-        <f t="shared" si="13"/>
-        <v>0.22998986828774065</v>
+        <f>H86/I86</f>
+        <v>0.29879793932455639</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
-        <v>6.1126547107855506E-3</v>
+        <f>(G86/1000)/(E86/10000)</f>
+        <v>1.0366328916601714E-2</v>
       </c>
       <c r="O86">
-        <f t="shared" si="15"/>
-        <v>7.1570247933884295</v>
+        <f>(F86+H86)/G86</f>
+        <v>5.5676691729323311</v>
       </c>
       <c r="P86">
-        <f t="shared" si="16"/>
-        <v>31.785516586676412</v>
+        <f>LN(I86*1000)/((E86/10000)*42)</f>
+        <v>47.907343439297875</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="17"/>
-        <v>0.12583886016665194</v>
+        <f>LN(I86*1000)/(42)</f>
+        <v>0.12293024326523835</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>28</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C87" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D87" s="3">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="E87" s="2">
-        <v>29.5</v>
+        <v>62.42</v>
       </c>
       <c r="F87" s="4">
-        <v>0.1249</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="G87" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="H87" s="4">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="I87" s="26">
-        <f t="shared" si="9"/>
-        <v>0.18309999999999998</v>
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="I87" s="28">
+        <f>SUM(F87,G87,H87)</f>
+        <v>0.37679999999999997</v>
       </c>
       <c r="J87">
-        <f t="shared" si="10"/>
-        <v>236.18895116092875</v>
+        <f>E87/F87</f>
+        <v>266.9803250641574</v>
       </c>
       <c r="K87">
-        <f t="shared" si="11"/>
-        <v>0.68214090660841076</v>
+        <f>F87/I87</f>
+        <v>0.62048832271762211</v>
       </c>
       <c r="L87">
-        <f t="shared" si="12"/>
-        <v>7.0999453850354999E-2</v>
+        <f>G87/I87</f>
+        <v>0.13296178343949044</v>
       </c>
       <c r="M87">
-        <f t="shared" si="13"/>
-        <v>0.2468596395412343</v>
+        <f>H87/I87</f>
+        <v>0.24654989384288747</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
-        <v>4.4067796610169491E-3</v>
+        <f>(G87/1000)/(E87/10000)</f>
+        <v>8.0262736302467146E-3</v>
       </c>
       <c r="O87">
-        <f t="shared" si="15"/>
-        <v>13.084615384615386</v>
+        <f>(F87+H87)/G87</f>
+        <v>6.5209580838323351</v>
       </c>
       <c r="P87">
-        <f t="shared" si="16"/>
-        <v>42.050302273450079</v>
+        <f>LN(I87*1000)/((E87/10000)*42)</f>
+        <v>22.625969022070947</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="17"/>
-        <v>0.12404839170667772</v>
+        <f>LN(I87*1000)/(42)</f>
+        <v>0.14123129863576686</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>29</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C88" s="2">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3">
         <v>10</v>
       </c>
-      <c r="D88" s="3">
-        <v>9</v>
-      </c>
       <c r="E88" s="2">
-        <v>25.66</v>
+        <v>68.72</v>
       </c>
       <c r="F88" s="4">
-        <v>9.5899999999999999E-2</v>
+        <v>0.2412</v>
       </c>
       <c r="G88" s="4">
-        <v>2.6599999999999999E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="H88" s="4">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="I88" s="26">
-        <f t="shared" si="9"/>
-        <v>0.17469999999999999</v>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I88" s="28">
+        <f>SUM(F88,G88,H88)</f>
+        <v>0.39510000000000001</v>
       </c>
       <c r="J88">
-        <f t="shared" si="10"/>
-        <v>267.57038581856102</v>
+        <f>E88/F88</f>
+        <v>284.90878938640134</v>
       </c>
       <c r="K88">
-        <f t="shared" si="11"/>
-        <v>0.54894104178591874</v>
+        <f>F88/I88</f>
+        <v>0.61047835990888377</v>
       </c>
       <c r="L88">
-        <f t="shared" si="12"/>
-        <v>0.1522610188895249</v>
+        <f>G88/I88</f>
+        <v>0.13389015439129334</v>
       </c>
       <c r="M88">
-        <f t="shared" si="13"/>
-        <v>0.29879793932455639</v>
+        <f>H88/I88</f>
+        <v>0.25563148569982286</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
-        <v>1.0366328916601714E-2</v>
+        <f>(G88/1000)/(E88/10000)</f>
+        <v>7.6979045401629814E-3</v>
       </c>
       <c r="O88">
-        <f t="shared" si="15"/>
-        <v>5.5676691729323311</v>
+        <f>(F88+H88)/G88</f>
+        <v>6.4688090737240076</v>
       </c>
       <c r="P88">
-        <f t="shared" si="16"/>
-        <v>47.907343439297875</v>
+        <f>LN(I88*1000)/((E88/10000)*42)</f>
+        <v>20.71601425182017</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="17"/>
-        <v>0.12293024326523835</v>
+        <f>LN(I88*1000)/(42)</f>
+        <v>0.14236044993850822</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D89" s="3">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="E89" s="2">
-        <v>62.42</v>
+        <v>76.41</v>
       </c>
       <c r="F89" s="4">
-        <v>0.23380000000000001</v>
+        <v>0.2409</v>
       </c>
       <c r="G89" s="4">
-        <v>5.0099999999999999E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="H89" s="4">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="I89" s="26">
-        <f t="shared" si="9"/>
-        <v>0.37679999999999997</v>
+        <v>0.1173</v>
+      </c>
+      <c r="I89" s="28">
+        <f>SUM(F89,G89,H89)</f>
+        <v>0.4254</v>
       </c>
       <c r="J89">
-        <f t="shared" si="10"/>
-        <v>266.9803250641574</v>
+        <f>E89/F89</f>
+        <v>317.18555417185553</v>
       </c>
       <c r="K89">
-        <f t="shared" si="11"/>
-        <v>0.62048832271762211</v>
+        <f>F89/I89</f>
+        <v>0.56629055007052187</v>
       </c>
       <c r="L89">
-        <f t="shared" si="12"/>
-        <v>0.13296178343949044</v>
+        <f>G89/I89</f>
+        <v>0.15796897038081803</v>
       </c>
       <c r="M89">
-        <f t="shared" si="13"/>
-        <v>0.24654989384288747</v>
+        <f>H89/I89</f>
+        <v>0.2757404795486601</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
-        <v>8.0262736302467146E-3</v>
+        <f>(G89/1000)/(E89/10000)</f>
+        <v>8.7946603847663916E-3</v>
       </c>
       <c r="O89">
-        <f t="shared" si="15"/>
-        <v>6.5209580838323351</v>
+        <f>(F89+H89)/G89</f>
+        <v>5.3303571428571432</v>
       </c>
       <c r="P89">
-        <f t="shared" si="16"/>
-        <v>22.625969022070947</v>
+        <f>LN(I89*1000)/((E89/10000)*42)</f>
+        <v>18.861374111984023</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="17"/>
-        <v>0.14123129863576686</v>
+        <f>LN(I89*1000)/(42)</f>
+        <v>0.14411975958966994</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D90" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2">
-        <v>68.72</v>
+        <v>60.26</v>
       </c>
       <c r="F90" s="4">
-        <v>0.2412</v>
+        <v>0.1678</v>
       </c>
       <c r="G90" s="4">
-        <v>5.2900000000000003E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="H90" s="4">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="I90" s="26">
-        <f t="shared" si="9"/>
-        <v>0.39510000000000001</v>
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="I90" s="28">
+        <f>SUM(F90,G90,H90)</f>
+        <v>0.25830000000000003</v>
       </c>
       <c r="J90">
-        <f t="shared" si="10"/>
-        <v>284.90878938640134</v>
+        <f>E90/F90</f>
+        <v>359.11799761620978</v>
       </c>
       <c r="K90">
-        <f t="shared" si="11"/>
-        <v>0.61047835990888377</v>
+        <f>F90/I90</f>
+        <v>0.64963221060782028</v>
       </c>
       <c r="L90">
-        <f t="shared" si="12"/>
-        <v>0.13389015439129334</v>
+        <f>G90/I90</f>
+        <v>0.11691831204026325</v>
       </c>
       <c r="M90">
-        <f t="shared" si="13"/>
-        <v>0.25563148569982286</v>
+        <f>H90/I90</f>
+        <v>0.23344947735191635</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
-        <v>7.6979045401629814E-3</v>
+        <f>(G90/1000)/(E90/10000)</f>
+        <v>5.0116163292399608E-3</v>
       </c>
       <c r="O90">
-        <f t="shared" si="15"/>
-        <v>6.4688090737240076</v>
+        <f>(F90+H90)/G90</f>
+        <v>7.5529801324503305</v>
       </c>
       <c r="P90">
-        <f t="shared" si="16"/>
-        <v>20.71601425182017</v>
+        <f>LN(I90*1000)/((E90/10000)*42)</f>
+        <v>21.945070172513532</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="17"/>
-        <v>0.14236044993850822</v>
+        <f>LN(I90*1000)/(42)</f>
+        <v>0.13224099285956653</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="3">
-        <v>14.5</v>
+        <v>12.2</v>
       </c>
       <c r="E91" s="2">
-        <v>76.41</v>
+        <v>46.88</v>
       </c>
       <c r="F91" s="4">
-        <v>0.2409</v>
+        <v>0.1515</v>
       </c>
       <c r="G91" s="4">
-        <v>6.7199999999999996E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="H91" s="4">
-        <v>0.1173</v>
-      </c>
-      <c r="I91" s="26">
-        <f t="shared" si="9"/>
-        <v>0.4254</v>
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="I91" s="28">
+        <f>SUM(F91,G91,H91)</f>
+        <v>0.26729999999999998</v>
       </c>
       <c r="J91">
-        <f t="shared" si="10"/>
-        <v>317.18555417185553</v>
+        <f>E91/F91</f>
+        <v>309.43894389438947</v>
       </c>
       <c r="K91">
-        <f t="shared" si="11"/>
-        <v>0.56629055007052187</v>
+        <f>F91/I91</f>
+        <v>0.56677890011223342</v>
       </c>
       <c r="L91">
-        <f t="shared" si="12"/>
-        <v>0.15796897038081803</v>
+        <f>G91/I91</f>
+        <v>0.17732884399551066</v>
       </c>
       <c r="M91">
-        <f t="shared" si="13"/>
-        <v>0.2757404795486601</v>
+        <f>H91/I91</f>
+        <v>0.25589225589225589</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
-        <v>8.7946603847663916E-3</v>
+        <f>(G91/1000)/(E91/10000)</f>
+        <v>1.0110921501706484E-2</v>
       </c>
       <c r="O91">
-        <f t="shared" si="15"/>
-        <v>5.3303571428571432</v>
+        <f>(F91+H91)/G91</f>
+        <v>4.6392405063291138</v>
       </c>
       <c r="P91">
-        <f t="shared" si="16"/>
-        <v>18.861374111984023</v>
+        <f>LN(I91*1000)/((E91/10000)*42)</f>
+        <v>28.382352222213111</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="17"/>
-        <v>0.14411975958966994</v>
+        <f>LN(I91*1000)/(42)</f>
+        <v>0.13305646721773506</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D92" s="3">
         <v>13</v>
       </c>
       <c r="E92" s="2">
-        <v>60.26</v>
+        <v>61.91</v>
       </c>
       <c r="F92" s="4">
-        <v>0.1678</v>
+        <v>0.1744</v>
       </c>
       <c r="G92" s="4">
-        <v>3.0200000000000001E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="H92" s="4">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="I92" s="26">
-        <f t="shared" si="9"/>
-        <v>0.25830000000000003</v>
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="I92" s="28">
+        <f>SUM(F92,G92,H92)</f>
+        <v>0.2949</v>
       </c>
       <c r="J92">
-        <f t="shared" si="10"/>
-        <v>359.11799761620978</v>
+        <f>E92/F92</f>
+        <v>354.98853211009174</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
-        <v>0.64963221060782028</v>
+        <f>F92/I92</f>
+        <v>0.59138691081722616</v>
       </c>
       <c r="L92">
-        <f t="shared" si="12"/>
-        <v>0.11691831204026325</v>
+        <f>G92/I92</f>
+        <v>0.12648355374703291</v>
       </c>
       <c r="M92">
-        <f t="shared" si="13"/>
-        <v>0.23344947735191635</v>
+        <f>H92/I92</f>
+        <v>0.28212953543574093</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
-        <v>5.0116163292399608E-3</v>
+        <f>(G92/1000)/(E92/10000)</f>
+        <v>6.0248748182846071E-3</v>
       </c>
       <c r="O92">
-        <f t="shared" si="15"/>
-        <v>7.5529801324503305</v>
+        <f>(F92+H92)/G92</f>
+        <v>6.9061662198391423</v>
       </c>
       <c r="P92">
-        <f t="shared" si="16"/>
-        <v>21.945070172513532</v>
+        <f>LN(I92*1000)/((E92/10000)*42)</f>
+        <v>21.869827613898945</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="17"/>
-        <v>0.13224099285956653</v>
+        <f>LN(I92*1000)/(42)</f>
+        <v>0.13539610275764835</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D93" s="3">
-        <v>14.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E93" s="2">
-        <v>72.34</v>
+        <v>86.21</v>
       </c>
       <c r="F93" s="4">
-        <v>0.28739999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="G93" s="4">
-        <v>4.2099999999999999E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="H93" s="4">
-        <v>0.2054</v>
-      </c>
-      <c r="I93" s="26">
-        <f t="shared" si="9"/>
-        <v>0.53490000000000004</v>
+        <v>0.112</v>
+      </c>
+      <c r="I93" s="28">
+        <f>SUM(F93,G93,H93)</f>
+        <v>0.42119999999999996</v>
       </c>
       <c r="J93">
-        <f t="shared" si="10"/>
-        <v>251.70494084899099</v>
+        <f>E93/F93</f>
+        <v>346.22489959839356</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
-        <v>0.53729669097027477</v>
+        <f>F93/I93</f>
+        <v>0.59116809116809121</v>
       </c>
       <c r="L93">
-        <f t="shared" si="12"/>
-        <v>7.870630024303607E-2</v>
+        <f>G93/I93</f>
+        <v>0.14292497625830961</v>
       </c>
       <c r="M93">
-        <f t="shared" si="13"/>
-        <v>0.38399700878668908</v>
+        <f>H93/I93</f>
+        <v>0.26590693257359926</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
-        <v>5.8197401161183306E-3</v>
+        <f>(G93/1000)/(E93/10000)</f>
+        <v>6.9829486138499016E-3</v>
       </c>
       <c r="O93">
-        <f t="shared" si="15"/>
-        <v>11.705463182897862</v>
+        <f>(F93+H93)/G93</f>
+        <v>5.9966777408637872</v>
       </c>
       <c r="P93">
-        <f t="shared" si="16"/>
-        <v>20.67643473786881</v>
+        <f>LN(I93*1000)/((E93/10000)*42)</f>
+        <v>16.689887319059828</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="17"/>
-        <v>0.14957332889374295</v>
+        <f>LN(I93*1000)/(42)</f>
+        <v>0.14388351857761478</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="2">
-        <v>12</v>
-      </c>
-      <c r="D94" s="3">
-        <v>12.2</v>
+        <v>36</v>
+      </c>
+      <c r="D94" s="2">
+        <v>14.3</v>
       </c>
       <c r="E94" s="2">
-        <v>46.88</v>
+        <v>79.739999999999995</v>
       </c>
       <c r="F94" s="4">
-        <v>0.1515</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="G94" s="4">
-        <v>4.7399999999999998E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="H94" s="4">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="I94" s="26">
-        <f t="shared" si="9"/>
-        <v>0.26729999999999998</v>
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="I94" s="28">
+        <f>SUM(F94,G94,H94)</f>
+        <v>0.31720000000000004</v>
       </c>
       <c r="J94">
-        <f t="shared" si="10"/>
-        <v>309.43894389438947</v>
+        <f>E94/F94</f>
+        <v>384.10404624277453</v>
       </c>
       <c r="K94">
-        <f t="shared" si="11"/>
-        <v>0.56677890011223342</v>
+        <f>F94/I94</f>
+        <v>0.65447667087011341</v>
       </c>
       <c r="L94">
-        <f t="shared" si="12"/>
-        <v>0.17732884399551066</v>
+        <f>G94/I94</f>
+        <v>9.3631778058007556E-2</v>
       </c>
       <c r="M94">
-        <f t="shared" si="13"/>
-        <v>0.25589225589225589</v>
+        <f>H94/I94</f>
+        <v>0.25189155107187888</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
-        <v>1.0110921501706484E-2</v>
+        <f>(G94/1000)/(E94/10000)</f>
+        <v>3.7246049661399548E-3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="15"/>
-        <v>4.6392405063291138</v>
+        <f>(F94+H94)/G94</f>
+        <v>9.6801346801346799</v>
       </c>
       <c r="P94">
-        <f t="shared" si="16"/>
-        <v>28.382352222213111</v>
+        <f>LN(I94*1000)/((E94/10000)*42)</f>
+        <v>17.197357154086177</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="17"/>
-        <v>0.13305646721773506</v>
+        <f>LN(I94*1000)/(42)</f>
+        <v>0.13713172594668319</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="2">
-        <v>13</v>
-      </c>
-      <c r="D95" s="3">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D95" s="2">
+        <v>16.3</v>
       </c>
       <c r="E95" s="2">
-        <v>61.91</v>
+        <v>58.18</v>
       </c>
       <c r="F95" s="4">
-        <v>0.1744</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G95" s="4">
-        <v>3.73E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="H95" s="4">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="I95" s="26">
-        <f t="shared" si="9"/>
-        <v>0.2949</v>
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="I95" s="28">
+        <f>SUM(F95,G95,H95)</f>
+        <v>0.3281</v>
       </c>
       <c r="J95">
-        <f t="shared" si="10"/>
-        <v>354.98853211009174</v>
+        <f>E95/F95</f>
+        <v>299.89690721649481</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
-        <v>0.59138691081722616</v>
+        <f>F95/I95</f>
+        <v>0.59128314538250537</v>
       </c>
       <c r="L95">
-        <f t="shared" si="12"/>
-        <v>0.12648355374703291</v>
+        <f>G95/I95</f>
+        <v>0.11856141420298688</v>
       </c>
       <c r="M95">
-        <f t="shared" si="13"/>
-        <v>0.28212953543574093</v>
+        <f>H95/I95</f>
+        <v>0.2901554404145078</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
-        <v>6.0248748182846071E-3</v>
+        <f>(G95/1000)/(E95/10000)</f>
+        <v>6.6861464420763144E-3</v>
       </c>
       <c r="O95">
-        <f t="shared" si="15"/>
-        <v>6.9061662198391423</v>
+        <f>(F95+H95)/G95</f>
+        <v>7.4344473007712093</v>
       </c>
       <c r="P95">
-        <f t="shared" si="16"/>
-        <v>21.869827613898945</v>
+        <f>LN(I95*1000)/((E95/10000)*42)</f>
+        <v>23.708517245195761</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="17"/>
-        <v>0.13539610275764835</v>
+        <f>LN(I95*1000)/(42)</f>
+        <v>0.13793615333254894</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>17</v>
@@ -5715,860 +6562,990 @@
       <c r="C96" s="2">
         <v>20</v>
       </c>
-      <c r="D96" s="3">
-        <v>17.399999999999999</v>
+      <c r="D96" s="2">
+        <v>9.5</v>
       </c>
       <c r="E96" s="2">
-        <v>86.21</v>
+        <v>44.43</v>
       </c>
       <c r="F96" s="4">
-        <v>0.249</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="G96" s="4">
-        <v>6.0199999999999997E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="H96" s="4">
-        <v>0.112</v>
-      </c>
-      <c r="I96" s="26">
-        <f t="shared" si="9"/>
-        <v>0.42119999999999996</v>
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="I96" s="28">
+        <f>SUM(F96,G96,H96)</f>
+        <v>0.24560000000000001</v>
       </c>
       <c r="J96">
-        <f t="shared" si="10"/>
-        <v>346.22489959839356</v>
+        <f>E96/F96</f>
+        <v>287.75906735751295</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
-        <v>0.59116809116809121</v>
+        <f>F96/I96</f>
+        <v>0.62866449511400657</v>
       </c>
       <c r="L96">
-        <f t="shared" si="12"/>
-        <v>0.14292497625830961</v>
+        <f>G96/I96</f>
+        <v>0.12825732899022801</v>
       </c>
       <c r="M96">
-        <f t="shared" si="13"/>
-        <v>0.26590693257359926</v>
+        <f>H96/I96</f>
+        <v>0.24307817589576547</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
-        <v>6.9829486138499016E-3</v>
+        <f>(G96/1000)/(E96/10000)</f>
+        <v>7.0898041863605675E-3</v>
       </c>
       <c r="O96">
-        <f t="shared" si="15"/>
-        <v>5.9966777408637872</v>
+        <f>(F96+H96)/G96</f>
+        <v>6.7968253968253975</v>
       </c>
       <c r="P96">
-        <f t="shared" si="16"/>
-        <v>16.689887319059828</v>
+        <f>LN(I96*1000)/((E96/10000)*42)</f>
+        <v>29.493715080292098</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="17"/>
-        <v>0.14388351857761478</v>
+        <f>LN(I96*1000)/(42)</f>
+        <v>0.13104057610173778</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="2">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2">
-        <v>14.3</v>
+        <v>12.9</v>
       </c>
       <c r="E97" s="2">
-        <v>79.739999999999995</v>
+        <v>69.88</v>
       </c>
       <c r="F97" s="4">
-        <v>0.20760000000000001</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="G97" s="4">
-        <v>2.9700000000000001E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="H97" s="4">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="I97" s="26">
-        <f t="shared" si="9"/>
-        <v>0.31720000000000004</v>
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="I97" s="28">
+        <f>SUM(F97,G97,H97)</f>
+        <v>0.30920000000000003</v>
       </c>
       <c r="J97">
-        <f t="shared" si="10"/>
-        <v>384.10404624277453</v>
+        <f>E97/F97</f>
+        <v>345.42758279782498</v>
       </c>
       <c r="K97">
-        <f t="shared" si="11"/>
-        <v>0.65447667087011341</v>
+        <f>F97/I97</f>
+        <v>0.65426908150064678</v>
       </c>
       <c r="L97">
-        <f t="shared" si="12"/>
-        <v>9.3631778058007556E-2</v>
+        <f>G97/I97</f>
+        <v>0.12548512289780075</v>
       </c>
       <c r="M97">
-        <f t="shared" si="13"/>
-        <v>0.25189155107187888</v>
+        <f>H97/I97</f>
+        <v>0.22024579560155236</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
-        <v>3.7246049661399548E-3</v>
+        <f>(G97/1000)/(E97/10000)</f>
+        <v>5.552375500858615E-3</v>
       </c>
       <c r="O97">
-        <f t="shared" si="15"/>
-        <v>9.6801346801346799</v>
+        <f>(F97+H97)/G97</f>
+        <v>6.9690721649484528</v>
       </c>
       <c r="P97">
-        <f t="shared" si="16"/>
-        <v>17.197357154086177</v>
+        <f>LN(I97*1000)/((E97/10000)*42)</f>
+        <v>19.536853370108172</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="17"/>
-        <v>0.13713172594668319</v>
+        <f>LN(I97*1000)/(42)</f>
+        <v>0.13652353135031589</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="2">
-        <v>18</v>
-      </c>
-      <c r="D98" s="2">
-        <v>16.3</v>
+        <v>22</v>
+      </c>
+      <c r="D98" s="3">
+        <v>15.4</v>
       </c>
       <c r="E98" s="2">
-        <v>58.18</v>
+        <v>71.06</v>
       </c>
       <c r="F98" s="4">
-        <v>0.19400000000000001</v>
+        <v>0.2359</v>
       </c>
       <c r="G98" s="4">
-        <v>3.8899999999999997E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="H98" s="4">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="I98" s="26">
-        <f t="shared" si="9"/>
-        <v>0.3281</v>
+        <v>0.1079</v>
+      </c>
+      <c r="I98" s="28">
+        <f>SUM(F98,G98,H98)</f>
+        <v>0.38829999999999998</v>
       </c>
       <c r="J98">
-        <f t="shared" si="10"/>
-        <v>299.89690721649481</v>
+        <f>E98/F98</f>
+        <v>301.22933446375583</v>
       </c>
       <c r="K98">
-        <f t="shared" si="11"/>
-        <v>0.59128314538250537</v>
+        <f>F98/I98</f>
+        <v>0.60751995879474641</v>
       </c>
       <c r="L98">
-        <f t="shared" si="12"/>
-        <v>0.11856141420298688</v>
+        <f>G98/I98</f>
+        <v>0.11460211176925059</v>
       </c>
       <c r="M98">
-        <f t="shared" si="13"/>
-        <v>0.2901554404145078</v>
+        <f>H98/I98</f>
+        <v>0.27787792943600309</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
-        <v>6.6861464420763144E-3</v>
+        <f>(G98/1000)/(E98/10000)</f>
+        <v>6.2623135378553326E-3</v>
       </c>
       <c r="O98">
-        <f t="shared" si="15"/>
-        <v>7.4344473007712093</v>
+        <f>(F98+H98)/G98</f>
+        <v>7.725842696629214</v>
       </c>
       <c r="P98">
-        <f t="shared" si="16"/>
-        <v>23.708517245195761</v>
+        <f>LN(I98*1000)/((E98/10000)*42)</f>
+        <v>19.975668572291763</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="17"/>
-        <v>0.13793615333254894</v>
+        <f>LN(I98*1000)/(42)</f>
+        <v>0.14194710087470527</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="2">
-        <v>20</v>
-      </c>
-      <c r="D99" s="2">
-        <v>9.5</v>
+        <v>8</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8.5</v>
       </c>
       <c r="E99" s="2">
-        <v>44.43</v>
+        <v>30.85</v>
       </c>
       <c r="F99" s="4">
-        <v>0.15440000000000001</v>
+        <v>0.1028</v>
       </c>
       <c r="G99" s="4">
-        <v>3.15E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="H99" s="4">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="I99" s="26">
-        <f t="shared" si="9"/>
-        <v>0.24560000000000001</v>
+        <v>6.08E-2</v>
+      </c>
+      <c r="I99" s="28">
+        <f>SUM(F99,G99,H99)</f>
+        <v>0.19769999999999999</v>
       </c>
       <c r="J99">
-        <f t="shared" si="10"/>
-        <v>287.75906735751295</v>
+        <f>E99/F99</f>
+        <v>300.09727626459147</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
-        <v>0.62866449511400657</v>
+        <f>F99/I99</f>
+        <v>0.51997976732422868</v>
       </c>
       <c r="L99">
-        <f t="shared" si="12"/>
-        <v>0.12825732899022801</v>
+        <f>G99/I99</f>
+        <v>0.17248356095093575</v>
       </c>
       <c r="M99">
-        <f t="shared" si="13"/>
-        <v>0.24307817589576547</v>
+        <f>H99/I99</f>
+        <v>0.30753667172483562</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
-        <v>7.0898041863605675E-3</v>
+        <f>(G99/1000)/(E99/10000)</f>
+        <v>1.105348460291734E-2</v>
       </c>
       <c r="O99">
-        <f t="shared" si="15"/>
-        <v>6.7968253968253975</v>
+        <f>(F99+H99)/G99</f>
+        <v>4.7976539589442817</v>
       </c>
       <c r="P99">
-        <f t="shared" si="16"/>
-        <v>29.493715080292098</v>
+        <f>LN(I99*1000)/((E99/10000)*42)</f>
+        <v>40.802274679143103</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="17"/>
-        <v>0.13104057610173778</v>
+        <f>LN(I99*1000)/(42)</f>
+        <v>0.12587501738515647</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2">
-        <v>12.9</v>
+        <v>10.3</v>
       </c>
       <c r="E100" s="2">
-        <v>69.88</v>
+        <v>39.54</v>
       </c>
       <c r="F100" s="4">
-        <v>0.20230000000000001</v>
+        <v>0.1328</v>
       </c>
       <c r="G100" s="4">
-        <v>3.8800000000000001E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="H100" s="4">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="I100" s="26">
-        <f t="shared" si="9"/>
-        <v>0.30920000000000003</v>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I100" s="28">
+        <f>SUM(F100,G100,H100)</f>
+        <v>0.23400000000000001</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
-        <v>345.42758279782498</v>
+        <f>E100/F100</f>
+        <v>297.74096385542168</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
-        <v>0.65426908150064678</v>
+        <f>F100/I100</f>
+        <v>0.5675213675213675</v>
       </c>
       <c r="L100">
-        <f t="shared" si="12"/>
-        <v>0.12548512289780075</v>
+        <f>G100/I100</f>
+        <v>0.14615384615384616</v>
       </c>
       <c r="M100">
-        <f t="shared" si="13"/>
-        <v>0.22024579560155236</v>
+        <f>H100/I100</f>
+        <v>0.28632478632478631</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
-        <v>5.552375500858615E-3</v>
+        <f>(G100/1000)/(E100/10000)</f>
+        <v>8.6494688922610034E-3</v>
       </c>
       <c r="O100">
-        <f t="shared" si="15"/>
-        <v>6.9690721649484528</v>
+        <f>(F100+H100)/G100</f>
+        <v>5.8421052631578947</v>
       </c>
       <c r="P100">
-        <f t="shared" si="16"/>
-        <v>19.536853370108172</v>
+        <f>LN(I100*1000)/((E100/10000)*42)</f>
+        <v>32.849923617781279</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="17"/>
-        <v>0.13652353135031589</v>
+        <f>LN(I100*1000)/(42)</f>
+        <v>0.12988859798470717</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="2">
-        <v>22</v>
-      </c>
-      <c r="D101" s="3">
-        <v>15.4</v>
+        <v>21</v>
+      </c>
+      <c r="D101" s="2">
+        <v>14.4</v>
       </c>
       <c r="E101" s="2">
-        <v>71.06</v>
+        <v>97.83</v>
       </c>
       <c r="F101" s="4">
-        <v>0.2359</v>
+        <v>0.33539999999999998</v>
       </c>
       <c r="G101" s="4">
-        <v>4.4499999999999998E-2</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="H101" s="4">
-        <v>0.1079</v>
-      </c>
-      <c r="I101" s="26">
-        <f t="shared" si="9"/>
-        <v>0.38829999999999998</v>
+        <v>0.1203</v>
+      </c>
+      <c r="I101" s="28">
+        <f>SUM(F101,G101,H101)</f>
+        <v>0.51619999999999999</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
-        <v>301.22933446375583</v>
+        <f>E101/F101</f>
+        <v>291.68157423971377</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
-        <v>0.60751995879474641</v>
+        <f>F101/I101</f>
+        <v>0.6497481596280511</v>
       </c>
       <c r="L101">
-        <f t="shared" si="12"/>
-        <v>0.11460211176925059</v>
+        <f>G101/I101</f>
+        <v>0.11720263463773731</v>
       </c>
       <c r="M101">
-        <f t="shared" si="13"/>
-        <v>0.27787792943600309</v>
+        <f>H101/I101</f>
+        <v>0.23304920573421156</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
-        <v>6.2623135378553326E-3</v>
+        <f>(G101/1000)/(E101/10000)</f>
+        <v>6.184197076561382E-3</v>
       </c>
       <c r="O101">
-        <f t="shared" si="15"/>
-        <v>7.725842696629214</v>
+        <f>(F101+H101)/G101</f>
+        <v>7.5322314049586776</v>
       </c>
       <c r="P101">
-        <f t="shared" si="16"/>
-        <v>19.975668572291763</v>
+        <f>LN(I101*1000)/((E101/10000)*42)</f>
+        <v>15.20249968917051</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="17"/>
-        <v>0.14194710087470527</v>
+        <f>LN(I101*1000)/(42)</f>
+        <v>0.1487260544591551</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="2">
-        <v>8</v>
-      </c>
-      <c r="D102" s="3">
-        <v>8.5</v>
+        <v>21</v>
+      </c>
+      <c r="D102" s="2">
+        <v>15.1</v>
       </c>
       <c r="E102" s="2">
-        <v>30.85</v>
+        <v>75.09</v>
       </c>
       <c r="F102" s="4">
-        <v>0.1028</v>
+        <v>0.21240000000000001</v>
       </c>
       <c r="G102" s="4">
-        <v>3.4099999999999998E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="H102" s="4">
-        <v>6.08E-2</v>
-      </c>
-      <c r="I102" s="26">
-        <f t="shared" si="9"/>
-        <v>0.19769999999999999</v>
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="I102" s="28">
+        <f>SUM(F102,G102,H102)</f>
+        <v>0.37779999999999997</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
-        <v>300.09727626459147</v>
+        <f>E102/F102</f>
+        <v>353.5310734463277</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
-        <v>0.51997976732422868</v>
+        <f>F102/I102</f>
+        <v>0.56220222339862369</v>
       </c>
       <c r="L102">
-        <f t="shared" si="12"/>
-        <v>0.17248356095093575</v>
+        <f>G102/I102</f>
+        <v>0.12413975648491266</v>
       </c>
       <c r="M102">
-        <f t="shared" si="13"/>
-        <v>0.30753667172483562</v>
+        <f>H102/I102</f>
+        <v>0.31365802011646376</v>
       </c>
       <c r="N102">
-        <f t="shared" si="14"/>
-        <v>1.105348460291734E-2</v>
+        <f>(G102/1000)/(E102/10000)</f>
+        <v>6.2458383273405237E-3</v>
       </c>
       <c r="O102">
-        <f t="shared" si="15"/>
-        <v>4.7976539589442817</v>
+        <f>(F102+H102)/G102</f>
+        <v>7.0554371002132195</v>
       </c>
       <c r="P102">
-        <f t="shared" si="16"/>
-        <v>40.802274679143103</v>
+        <f>LN(I102*1000)/((E102/10000)*42)</f>
+        <v>18.816673817030384</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="17"/>
-        <v>0.12587501738515647</v>
+        <f>LN(I102*1000)/(42)</f>
+        <v>0.14129440369208116</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="2">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2">
-        <v>10.3</v>
+        <v>21</v>
+      </c>
+      <c r="D103" s="3">
+        <v>13</v>
       </c>
       <c r="E103" s="2">
-        <v>39.54</v>
+        <v>80.28</v>
       </c>
       <c r="F103" s="4">
-        <v>0.1328</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="G103" s="4">
-        <v>3.4200000000000001E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="H103" s="4">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I103" s="26">
-        <f t="shared" si="9"/>
-        <v>0.23400000000000001</v>
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="I103" s="28">
+        <f>SUM(F103,G103,H103)</f>
+        <v>0.33729999999999999</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
-        <v>297.74096385542168</v>
+        <f>E103/F103</f>
+        <v>396.4444444444444</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
-        <v>0.5675213675213675</v>
+        <f>F103/I103</f>
+        <v>0.60035576638007715</v>
       </c>
       <c r="L103">
-        <f t="shared" si="12"/>
-        <v>0.14615384615384616</v>
+        <f>G103/I103</f>
+        <v>7.5600355766380078E-2</v>
       </c>
       <c r="M103">
-        <f t="shared" si="13"/>
-        <v>0.28632478632478631</v>
+        <f>H103/I103</f>
+        <v>0.32404387785354283</v>
       </c>
       <c r="N103">
-        <f t="shared" si="14"/>
-        <v>8.6494688922610034E-3</v>
+        <f>(G103/1000)/(E103/10000)</f>
+        <v>3.1763826606875933E-3</v>
       </c>
       <c r="O103">
-        <f t="shared" si="15"/>
-        <v>5.8421052631578947</v>
+        <f>(F103+H103)/G103</f>
+        <v>12.227450980392158</v>
       </c>
       <c r="P103">
-        <f t="shared" si="16"/>
-        <v>32.849923617781279</v>
+        <f>LN(I103*1000)/((E103/10000)*42)</f>
+        <v>17.263899987150936</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="17"/>
-        <v>0.12988859798470717</v>
+        <f>LN(I103*1000)/(42)</f>
+        <v>0.13859458909684774</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="2">
-        <v>21</v>
-      </c>
-      <c r="D104" s="2">
-        <v>14.4</v>
+        <v>12</v>
+      </c>
+      <c r="D104" s="3">
+        <v>11.9</v>
       </c>
       <c r="E104" s="2">
-        <v>97.83</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0.33539999999999998</v>
-      </c>
-      <c r="G104" s="4">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="H104" s="4">
-        <v>0.1203</v>
-      </c>
-      <c r="I104" s="26">
-        <f t="shared" si="9"/>
-        <v>0.51619999999999999</v>
+        <v>66.510000000000005</v>
+      </c>
+      <c r="F104" s="18">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="G104" s="18">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H104" s="18">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="I104" s="28">
+        <f>SUM(F104,G104,H104)</f>
+        <v>0.43620000000000003</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
-        <v>291.68157423971377</v>
+        <f>E104/F104</f>
+        <v>231.17831074035453</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
-        <v>0.6497481596280511</v>
+        <f>F104/I104</f>
+        <v>0.65955983493810177</v>
       </c>
       <c r="L104">
-        <f t="shared" si="12"/>
-        <v>0.11720263463773731</v>
+        <f>G104/I104</f>
+        <v>8.3218707015130663E-2</v>
       </c>
       <c r="M104">
-        <f t="shared" si="13"/>
-        <v>0.23304920573421156</v>
+        <f>H104/I104</f>
+        <v>0.25722145804676749</v>
       </c>
       <c r="N104">
-        <f t="shared" si="14"/>
-        <v>6.184197076561382E-3</v>
+        <f>(G104/1000)/(E104/10000)</f>
+        <v>5.4578258908434818E-3</v>
       </c>
       <c r="O104">
-        <f t="shared" si="15"/>
-        <v>7.5322314049586776</v>
+        <f>(F104+H104)/G104</f>
+        <v>11.016528925619836</v>
       </c>
       <c r="P104">
-        <f t="shared" si="16"/>
-        <v>15.20249968917051</v>
+        <f>LN(I104*1000)/((E104/10000)*42)</f>
+        <v>21.758635843401738</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="17"/>
-        <v>0.1487260544591551</v>
+        <f>LN(I104*1000)/(42)</f>
+        <v>0.14471668699446497</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
         <v>15.1</v>
       </c>
       <c r="E105" s="2">
-        <v>75.09</v>
-      </c>
-      <c r="F105" s="4">
-        <v>0.21240000000000001</v>
-      </c>
-      <c r="G105" s="4">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="I105" s="26">
-        <f t="shared" si="9"/>
-        <v>0.37779999999999997</v>
+        <v>69.239999999999995</v>
+      </c>
+      <c r="F105" s="18">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="G105" s="18">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="H105" s="18">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="I105" s="28">
+        <f>SUM(F105,G105,H105)</f>
+        <v>0.45079999999999998</v>
       </c>
       <c r="J105">
-        <f t="shared" si="10"/>
-        <v>353.5310734463277</v>
+        <f>E105/F105</f>
+        <v>271.849234393404</v>
       </c>
       <c r="K105">
-        <f t="shared" si="11"/>
-        <v>0.56220222339862369</v>
+        <f>F105/I105</f>
+        <v>0.56499556344276836</v>
       </c>
       <c r="L105">
-        <f t="shared" si="12"/>
-        <v>0.12413975648491266</v>
+        <f>G105/I105</f>
+        <v>0.15173025732031944</v>
       </c>
       <c r="M105">
-        <f t="shared" si="13"/>
-        <v>0.31365802011646376</v>
+        <f>H105/I105</f>
+        <v>0.28327417923691217</v>
       </c>
       <c r="N105">
-        <f t="shared" si="14"/>
-        <v>6.2458383273405237E-3</v>
+        <f>(G105/1000)/(E105/10000)</f>
+        <v>9.8786828422876977E-3</v>
       </c>
       <c r="O105">
-        <f t="shared" si="15"/>
-        <v>7.0554371002132195</v>
+        <f>(F105+H105)/G105</f>
+        <v>5.5906432748538002</v>
       </c>
       <c r="P105">
-        <f t="shared" si="16"/>
-        <v>18.816673817030384</v>
+        <f>LN(I105*1000)/((E105/10000)*42)</f>
+        <v>21.013946597637005</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="17"/>
-        <v>0.14129440369208116</v>
+        <f>LN(I105*1000)/(42)</f>
+        <v>0.14550056624203861</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D106" s="3">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="E106" s="2">
-        <v>80.28</v>
-      </c>
-      <c r="F106" s="4">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="G106" s="4">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="H106" s="4">
-        <v>0.10929999999999999</v>
-      </c>
-      <c r="I106" s="26">
-        <f t="shared" si="9"/>
-        <v>0.33729999999999999</v>
+        <v>49.09</v>
+      </c>
+      <c r="F106" s="18">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="G106" s="18">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H106" s="18">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="I106" s="28">
+        <f>SUM(F106,G106,H106)</f>
+        <v>0.27</v>
       </c>
       <c r="J106">
-        <f t="shared" si="10"/>
-        <v>396.4444444444444</v>
+        <f>E106/F106</f>
+        <v>305.09633312616535</v>
       </c>
       <c r="K106">
-        <f t="shared" si="11"/>
-        <v>0.60035576638007715</v>
+        <f>F106/I106</f>
+        <v>0.59592592592592586</v>
       </c>
       <c r="L106">
-        <f t="shared" si="12"/>
-        <v>7.5600355766380078E-2</v>
+        <f>G106/I106</f>
+        <v>0.10740740740740741</v>
       </c>
       <c r="M106">
-        <f t="shared" si="13"/>
-        <v>0.32404387785354283</v>
+        <f>H106/I106</f>
+        <v>0.29666666666666669</v>
       </c>
       <c r="N106">
-        <f t="shared" si="14"/>
-        <v>3.1763826606875933E-3</v>
+        <f>(G106/1000)/(E106/10000)</f>
+        <v>5.907516805866775E-3</v>
       </c>
       <c r="O106">
-        <f t="shared" si="15"/>
-        <v>12.227450980392158</v>
+        <f>(F106+H106)/G106</f>
+        <v>8.3103448275862064</v>
       </c>
       <c r="P106">
-        <f t="shared" si="16"/>
-        <v>17.263899987150936</v>
+        <f>LN(I106*1000)/((E106/10000)*42)</f>
+        <v>27.153343028831276</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="17"/>
-        <v>0.13859458909684774</v>
+        <f>LN(I106*1000)/(42)</f>
+        <v>0.13329576092853274</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="2">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3">
-        <v>11.9</v>
+        <v>23</v>
+      </c>
+      <c r="D107" s="2">
+        <v>15.1</v>
       </c>
       <c r="E107" s="2">
-        <v>66.510000000000005</v>
-      </c>
-      <c r="I107" s="26"/>
+        <v>67.38</v>
+      </c>
+      <c r="F107" s="18">
+        <v>0.2109</v>
+      </c>
+      <c r="G107" s="18">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="H107" s="18">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="I107" s="28">
+        <f>SUM(F107,G107,H107)</f>
+        <v>0.36439999999999995</v>
+      </c>
+      <c r="J107">
+        <f>E107/F107</f>
+        <v>319.48790896159312</v>
+      </c>
+      <c r="K107">
+        <f>F107/I107</f>
+        <v>0.57875960482985744</v>
+      </c>
+      <c r="L107">
+        <f>G107/I107</f>
+        <v>0.14928649835345775</v>
+      </c>
+      <c r="M107">
+        <f>H107/I107</f>
+        <v>0.27195389681668497</v>
+      </c>
+      <c r="N107">
+        <f>(G107/1000)/(E107/10000)</f>
+        <v>8.0736123478777084E-3</v>
+      </c>
+      <c r="O107">
+        <f>(F107+H107)/G107</f>
+        <v>5.6985294117647065</v>
+      </c>
+      <c r="P107">
+        <f>LN(I107*1000)/((E107/10000)*42)</f>
+        <v>20.842175032105768</v>
+      </c>
+      <c r="Q107">
+        <f>LN(I107*1000)/(42)</f>
+        <v>0.14043457536632864</v>
+      </c>
     </row>
     <row r="108" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2">
-        <v>15.1</v>
+        <v>13</v>
       </c>
       <c r="E108" s="2">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="I108" s="26"/>
+        <v>54.67</v>
+      </c>
+      <c r="F108" s="18">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G108" s="18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H108" s="18">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="I108" s="28">
+        <f>SUM(F108,G108,H108)</f>
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="J108">
+        <f>E108/F108</f>
+        <v>270.64356435643566</v>
+      </c>
+      <c r="K108">
+        <f>F108/I108</f>
+        <v>0.62558067513161975</v>
+      </c>
+      <c r="L108">
+        <f>G108/I108</f>
+        <v>0.10529575720037164</v>
+      </c>
+      <c r="M108">
+        <f>H108/I108</f>
+        <v>0.26912356766800866</v>
+      </c>
+      <c r="N108">
+        <f>(G108/1000)/(E108/10000)</f>
+        <v>6.2191329796963592E-3</v>
+      </c>
+      <c r="O108">
+        <f>(F108+H108)/G108</f>
+        <v>8.4970588235294127</v>
+      </c>
+      <c r="P108">
+        <f>LN(I108*1000)/((E108/10000)*42)</f>
+        <v>25.161108110847898</v>
+      </c>
+      <c r="Q108">
+        <f>LN(I108*1000)/(42)</f>
+        <v>0.13755577804200547</v>
+      </c>
     </row>
     <row r="109" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D109" s="3">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
       <c r="E109" s="2">
-        <v>49.09</v>
-      </c>
-      <c r="I109" s="26"/>
+        <v>77.930000000000007</v>
+      </c>
+      <c r="F109" s="18">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="G109" s="18">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="H109" s="18">
+        <v>0.1182</v>
+      </c>
+      <c r="I109" s="28">
+        <f>SUM(F109,G109,H109)</f>
+        <v>0.43699999999999994</v>
+      </c>
+      <c r="J109">
+        <f>E109/F109</f>
+        <v>284.51989777290987</v>
+      </c>
+      <c r="K109">
+        <f>F109/I109</f>
+        <v>0.62677345537757445</v>
+      </c>
+      <c r="L109">
+        <f>G109/I109</f>
+        <v>0.10274599542334098</v>
+      </c>
+      <c r="M109">
+        <f>H109/I109</f>
+        <v>0.27048054919908471</v>
+      </c>
+      <c r="N109">
+        <f>(G109/1000)/(E109/10000)</f>
+        <v>5.7615809059412288E-3</v>
+      </c>
+      <c r="O109">
+        <f>(F109+H109)/G109</f>
+        <v>8.7327394209354114</v>
+      </c>
+      <c r="P109">
+        <f>LN(I109*1000)/((E109/10000)*42)</f>
+        <v>18.57568512369339</v>
+      </c>
+      <c r="Q109">
+        <f>LN(I109*1000)/(42)</f>
+        <v>0.14476031416894261</v>
+      </c>
     </row>
     <row r="110" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="2">
-        <v>23</v>
-      </c>
-      <c r="D110" s="2">
-        <v>15.1</v>
+        <v>15</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10.199999999999999</v>
       </c>
       <c r="E110" s="2">
-        <v>67.38</v>
-      </c>
-      <c r="I110" s="26"/>
+        <v>42.74</v>
+      </c>
+      <c r="F110" s="18">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="G110" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="H110" s="18">
+        <v>7.51E-2</v>
+      </c>
+      <c r="I110" s="28">
+        <f>SUM(F110,G110,H110)</f>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J110">
+        <f>E110/F110</f>
+        <v>260.76876143990239</v>
+      </c>
+      <c r="K110">
+        <f>F110/I110</f>
+        <v>0.56712802768166093</v>
+      </c>
+      <c r="L110">
+        <f>G110/I110</f>
+        <v>0.17301038062283738</v>
+      </c>
+      <c r="M110">
+        <f>H110/I110</f>
+        <v>0.25986159169550177</v>
+      </c>
+      <c r="N110">
+        <f>(G110/1000)/(E110/10000)</f>
+        <v>1.169864295741694E-2</v>
+      </c>
+      <c r="O110">
+        <f>(F110+H110)/G110</f>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="P110">
+        <f>LN(I110*1000)/((E110/10000)*42)</f>
+        <v>31.566429842193287</v>
+      </c>
+      <c r="Q110">
+        <f>LN(I110*1000)/(42)</f>
+        <v>0.13491492114553411</v>
+      </c>
     </row>
     <row r="111" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E111" s="2">
-        <v>54.67</v>
-      </c>
-      <c r="I111" s="26"/>
-    </row>
-    <row r="112" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>26</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="2">
-        <v>33</v>
-      </c>
-      <c r="D112" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="E112" s="2">
-        <v>147.69</v>
-      </c>
-      <c r="I112" s="26"/>
-    </row>
-    <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>27</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="2">
-        <v>19</v>
-      </c>
-      <c r="D113" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="E113" s="2">
-        <v>97.49</v>
-      </c>
-      <c r="I113" s="26"/>
-    </row>
-    <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>28</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="2">
-        <v>18</v>
-      </c>
-      <c r="D114" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>77.930000000000007</v>
-      </c>
-      <c r="I114" s="26"/>
-    </row>
-    <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>29</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="2">
-        <v>15</v>
-      </c>
-      <c r="D115" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E115" s="2">
-        <v>42.74</v>
-      </c>
-      <c r="I115" s="26"/>
-    </row>
-    <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>30</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="2">
-        <v>15</v>
-      </c>
-      <c r="D116" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="E116" s="2">
         <v>70.81</v>
       </c>
-      <c r="I116" s="26"/>
+      <c r="F111" s="18">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="G111" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="H111" s="18">
+        <v>0.1033</v>
+      </c>
+      <c r="I111" s="28">
+        <f>SUM(F111,G111,H111)</f>
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="J111">
+        <f>E111/F111</f>
+        <v>281.9992035045799</v>
+      </c>
+      <c r="K111">
+        <f>F111/I111</f>
+        <v>0.60593629343629341</v>
+      </c>
+      <c r="L111">
+        <f>G111/I111</f>
+        <v>0.14478764478764478</v>
+      </c>
+      <c r="M111">
+        <f>H111/I111</f>
+        <v>0.24927606177606179</v>
+      </c>
+      <c r="N111">
+        <f>(G111/1000)/(E111/10000)</f>
+        <v>8.4733794661770931E-3</v>
+      </c>
+      <c r="O111">
+        <f>(F111+H111)/G111</f>
+        <v>5.9066666666666672</v>
+      </c>
+      <c r="P111">
+        <f>LN(I111*1000)/((E111/10000)*42)</f>
+        <v>20.264933292127399</v>
+      </c>
+      <c r="Q111">
+        <f>LN(I111*1000)/(42)</f>
+        <v>0.14349599264155413</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -7653,21 +8630,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
@@ -7679,7 +8656,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="20">
         <v>44712</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -7696,7 +8673,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -7711,7 +8688,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
@@ -7726,7 +8703,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7741,7 +8718,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="23">
         <v>44713</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7758,7 +8735,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -7773,7 +8750,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
@@ -7788,7 +8765,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -7803,7 +8780,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="20">
         <v>44719</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -7820,7 +8797,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -7835,7 +8812,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -7850,7 +8827,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -7865,7 +8842,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="23">
         <v>44720</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -7882,7 +8859,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
@@ -7897,7 +8874,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
@@ -7912,7 +8889,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
@@ -7927,7 +8904,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="20">
         <v>44726</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -7944,7 +8921,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
@@ -7959,7 +8936,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
@@ -7974,7 +8951,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
@@ -7989,7 +8966,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="23">
         <v>44727</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -8006,7 +8983,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
@@ -8021,7 +8998,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
@@ -8036,7 +9013,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
@@ -8051,7 +9028,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="20">
         <v>44733</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -8068,7 +9045,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
@@ -8083,7 +9060,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -8098,7 +9075,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
@@ -8113,7 +9090,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="23">
         <v>44734</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -8130,7 +9107,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="12" t="s">
         <v>15</v>
       </c>
@@ -8145,7 +9122,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="12" t="s">
         <v>16</v>
       </c>
@@ -8160,7 +9137,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
